--- a/data/trans_orig/IP09B02-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP09B02-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6C80C18E-B394-4259-B5CC-F4937E6058E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E1F4BC40-91B4-4E9A-A890-8E1942E4A262}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{29830D12-F8A2-4634-824F-145E98CAD39F}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{0E85E4FF-7E5C-47B3-8518-8BA3C10458BF}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -134,6 +134,63 @@
     <t>100%</t>
   </si>
   <si>
+    <t>5/9</t>
+  </si>
+  <si>
+    <t>20,37%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>36,04%</t>
+  </si>
+  <si>
+    <t>26,41%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>44,05%</t>
+  </si>
+  <si>
+    <t>23,16%</t>
+  </si>
+  <si>
+    <t>13,78%</t>
+  </si>
+  <si>
+    <t>33,86%</t>
+  </si>
+  <si>
+    <t>79,63%</t>
+  </si>
+  <si>
+    <t>63,96%</t>
+  </si>
+  <si>
+    <t>89,85%</t>
+  </si>
+  <si>
+    <t>73,59%</t>
+  </si>
+  <si>
+    <t>55,95%</t>
+  </si>
+  <si>
+    <t>87,16%</t>
+  </si>
+  <si>
+    <t>76,84%</t>
+  </si>
+  <si>
+    <t>66,14%</t>
+  </si>
+  <si>
+    <t>86,22%</t>
+  </si>
+  <si>
     <t>10/15</t>
   </si>
   <si>
@@ -191,63 +248,6 @@
     <t>90,86%</t>
   </si>
   <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>20,37%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>36,04%</t>
-  </si>
-  <si>
-    <t>26,41%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>44,05%</t>
-  </si>
-  <si>
-    <t>23,16%</t>
-  </si>
-  <si>
-    <t>13,78%</t>
-  </si>
-  <si>
-    <t>33,86%</t>
-  </si>
-  <si>
-    <t>79,63%</t>
-  </si>
-  <si>
-    <t>63,96%</t>
-  </si>
-  <si>
-    <t>89,85%</t>
-  </si>
-  <si>
-    <t>73,59%</t>
-  </si>
-  <si>
-    <t>55,95%</t>
-  </si>
-  <si>
-    <t>87,16%</t>
-  </si>
-  <si>
-    <t>76,84%</t>
-  </si>
-  <si>
-    <t>66,14%</t>
-  </si>
-  <si>
-    <t>86,22%</t>
-  </si>
-  <si>
     <t>18,02%</t>
   </si>
   <si>
@@ -359,6 +359,60 @@
     <t>60,81%</t>
   </si>
   <si>
+    <t>29,1%</t>
+  </si>
+  <si>
+    <t>15,01%</t>
+  </si>
+  <si>
+    <t>43,94%</t>
+  </si>
+  <si>
+    <t>26,5%</t>
+  </si>
+  <si>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>41,25%</t>
+  </si>
+  <si>
+    <t>27,86%</t>
+  </si>
+  <si>
+    <t>18,87%</t>
+  </si>
+  <si>
+    <t>38,85%</t>
+  </si>
+  <si>
+    <t>70,9%</t>
+  </si>
+  <si>
+    <t>56,06%</t>
+  </si>
+  <si>
+    <t>84,99%</t>
+  </si>
+  <si>
+    <t>73,5%</t>
+  </si>
+  <si>
+    <t>58,75%</t>
+  </si>
+  <si>
+    <t>86,82%</t>
+  </si>
+  <si>
+    <t>72,14%</t>
+  </si>
+  <si>
+    <t>61,15%</t>
+  </si>
+  <si>
+    <t>81,13%</t>
+  </si>
+  <si>
     <t>28,58%</t>
   </si>
   <si>
@@ -413,60 +467,6 @@
     <t>78,26%</t>
   </si>
   <si>
-    <t>29,1%</t>
-  </si>
-  <si>
-    <t>15,01%</t>
-  </si>
-  <si>
-    <t>43,94%</t>
-  </si>
-  <si>
-    <t>26,5%</t>
-  </si>
-  <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>41,25%</t>
-  </si>
-  <si>
-    <t>27,86%</t>
-  </si>
-  <si>
-    <t>18,87%</t>
-  </si>
-  <si>
-    <t>38,85%</t>
-  </si>
-  <si>
-    <t>70,9%</t>
-  </si>
-  <si>
-    <t>56,06%</t>
-  </si>
-  <si>
-    <t>84,99%</t>
-  </si>
-  <si>
-    <t>73,5%</t>
-  </si>
-  <si>
-    <t>58,75%</t>
-  </si>
-  <si>
-    <t>86,82%</t>
-  </si>
-  <si>
-    <t>72,14%</t>
-  </si>
-  <si>
-    <t>61,15%</t>
-  </si>
-  <si>
-    <t>81,13%</t>
-  </si>
-  <si>
     <t>36,91%</t>
   </si>
   <si>
@@ -578,6 +578,60 @@
     <t>57,27%</t>
   </si>
   <si>
+    <t>49,17%</t>
+  </si>
+  <si>
+    <t>27,98%</t>
+  </si>
+  <si>
+    <t>71,46%</t>
+  </si>
+  <si>
+    <t>41,43%</t>
+  </si>
+  <si>
+    <t>22,65%</t>
+  </si>
+  <si>
+    <t>65,6%</t>
+  </si>
+  <si>
+    <t>45,29%</t>
+  </si>
+  <si>
+    <t>28,55%</t>
+  </si>
+  <si>
+    <t>59,37%</t>
+  </si>
+  <si>
+    <t>50,83%</t>
+  </si>
+  <si>
+    <t>28,54%</t>
+  </si>
+  <si>
+    <t>72,02%</t>
+  </si>
+  <si>
+    <t>58,57%</t>
+  </si>
+  <si>
+    <t>34,4%</t>
+  </si>
+  <si>
+    <t>77,35%</t>
+  </si>
+  <si>
+    <t>54,71%</t>
+  </si>
+  <si>
+    <t>40,63%</t>
+  </si>
+  <si>
+    <t>71,45%</t>
+  </si>
+  <si>
     <t>33,01%</t>
   </si>
   <si>
@@ -632,60 +686,6 @@
     <t>77,33%</t>
   </si>
   <si>
-    <t>49,17%</t>
-  </si>
-  <si>
-    <t>27,98%</t>
-  </si>
-  <si>
-    <t>71,46%</t>
-  </si>
-  <si>
-    <t>41,43%</t>
-  </si>
-  <si>
-    <t>22,65%</t>
-  </si>
-  <si>
-    <t>65,6%</t>
-  </si>
-  <si>
-    <t>45,29%</t>
-  </si>
-  <si>
-    <t>28,55%</t>
-  </si>
-  <si>
-    <t>59,37%</t>
-  </si>
-  <si>
-    <t>50,83%</t>
-  </si>
-  <si>
-    <t>28,54%</t>
-  </si>
-  <si>
-    <t>72,02%</t>
-  </si>
-  <si>
-    <t>58,57%</t>
-  </si>
-  <si>
-    <t>34,4%</t>
-  </si>
-  <si>
-    <t>77,35%</t>
-  </si>
-  <si>
-    <t>54,71%</t>
-  </si>
-  <si>
-    <t>40,63%</t>
-  </si>
-  <si>
-    <t>71,45%</t>
-  </si>
-  <si>
     <t>44,74%</t>
   </si>
   <si>
@@ -791,6 +791,54 @@
     <t>71,25%</t>
   </si>
   <si>
+    <t>20,17%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>36,48%</t>
+  </si>
+  <si>
+    <t>14,15%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>18,23%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>30,77%</t>
+  </si>
+  <si>
+    <t>79,83%</t>
+  </si>
+  <si>
+    <t>63,52%</t>
+  </si>
+  <si>
+    <t>90,5%</t>
+  </si>
+  <si>
+    <t>85,85%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>81,77%</t>
+  </si>
+  <si>
+    <t>69,23%</t>
+  </si>
+  <si>
+    <t>91,42%</t>
+  </si>
+  <si>
     <t>24,15%</t>
   </si>
   <si>
@@ -837,54 +885,6 @@
   </si>
   <si>
     <t>86,29%</t>
-  </si>
-  <si>
-    <t>20,17%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>36,48%</t>
-  </si>
-  <si>
-    <t>14,15%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>18,23%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>30,77%</t>
-  </si>
-  <si>
-    <t>79,83%</t>
-  </si>
-  <si>
-    <t>63,52%</t>
-  </si>
-  <si>
-    <t>90,5%</t>
-  </si>
-  <si>
-    <t>85,85%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>81,77%</t>
-  </si>
-  <si>
-    <t>69,23%</t>
-  </si>
-  <si>
-    <t>91,42%</t>
   </si>
   <si>
     <t>27,95%</t>
@@ -1330,7 +1330,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4265716A-0260-4516-8E0D-2D44A798C1FA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{250D7C19-D592-44EB-B8E8-D444B96E7AF2}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1603,10 +1603,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D7" s="7">
-        <v>2854</v>
+        <v>5331</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1618,10 +1618,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I7" s="7">
-        <v>4222</v>
+        <v>5964</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1633,10 +1633,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="N7" s="7">
-        <v>7075</v>
+        <v>11295</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1654,10 +1654,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D8" s="7">
-        <v>22558</v>
+        <v>20846</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1669,10 +1669,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="I8" s="7">
-        <v>11273</v>
+        <v>16620</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1684,10 +1684,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="N8" s="7">
-        <v>33832</v>
+        <v>37466</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1705,10 +1705,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D9" s="7">
-        <v>25412</v>
+        <v>26177</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1720,10 +1720,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="I9" s="7">
-        <v>15495</v>
+        <v>22584</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1735,10 +1735,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="N9" s="7">
-        <v>40907</v>
+        <v>48761</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1758,10 +1758,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D10" s="7">
-        <v>5331</v>
+        <v>2854</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1773,10 +1773,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I10" s="7">
-        <v>5964</v>
+        <v>4222</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -1788,10 +1788,10 @@
         <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="N10" s="7">
-        <v>11295</v>
+        <v>7075</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -1809,10 +1809,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D11" s="7">
-        <v>20846</v>
+        <v>22558</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -1824,10 +1824,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="I11" s="7">
-        <v>16620</v>
+        <v>11273</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -1839,10 +1839,10 @@
         <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="N11" s="7">
-        <v>37466</v>
+        <v>33832</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -1860,10 +1860,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D12" s="7">
-        <v>26177</v>
+        <v>25412</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1875,10 +1875,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="I12" s="7">
-        <v>22584</v>
+        <v>15495</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1890,10 +1890,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="N12" s="7">
-        <v>48761</v>
+        <v>40907</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2076,7 +2076,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3913386D-F5C2-47C6-89C9-B384056DA985}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C483C43F-BBAC-4926-991B-CEBE7FD42B96}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2349,10 +2349,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D7" s="7">
-        <v>8683</v>
+        <v>8521</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>106</v>
@@ -2364,10 +2364,10 @@
         <v>108</v>
       </c>
       <c r="H7" s="7">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I7" s="7">
-        <v>7978</v>
+        <v>7111</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>109</v>
@@ -2379,10 +2379,10 @@
         <v>111</v>
       </c>
       <c r="M7" s="7">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="N7" s="7">
-        <v>16661</v>
+        <v>15632</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>112</v>
@@ -2400,10 +2400,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D8" s="7">
-        <v>21696</v>
+        <v>20760</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>115</v>
@@ -2415,10 +2415,10 @@
         <v>117</v>
       </c>
       <c r="H8" s="7">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="I8" s="7">
-        <v>13878</v>
+        <v>19727</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>118</v>
@@ -2430,10 +2430,10 @@
         <v>120</v>
       </c>
       <c r="M8" s="7">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="N8" s="7">
-        <v>35574</v>
+        <v>40487</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>121</v>
@@ -2451,10 +2451,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D9" s="7">
-        <v>30379</v>
+        <v>29281</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -2466,10 +2466,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="I9" s="7">
-        <v>21856</v>
+        <v>26838</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -2481,10 +2481,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="N9" s="7">
-        <v>52235</v>
+        <v>56119</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -2504,10 +2504,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D10" s="7">
-        <v>8521</v>
+        <v>8683</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>124</v>
@@ -2519,10 +2519,10 @@
         <v>126</v>
       </c>
       <c r="H10" s="7">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I10" s="7">
-        <v>7111</v>
+        <v>7978</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>127</v>
@@ -2534,10 +2534,10 @@
         <v>129</v>
       </c>
       <c r="M10" s="7">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="N10" s="7">
-        <v>15632</v>
+        <v>16661</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>130</v>
@@ -2555,10 +2555,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D11" s="7">
-        <v>20760</v>
+        <v>21696</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>133</v>
@@ -2570,10 +2570,10 @@
         <v>135</v>
       </c>
       <c r="H11" s="7">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="I11" s="7">
-        <v>19727</v>
+        <v>13878</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>136</v>
@@ -2585,10 +2585,10 @@
         <v>138</v>
       </c>
       <c r="M11" s="7">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="N11" s="7">
-        <v>40487</v>
+        <v>35574</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>139</v>
@@ -2606,10 +2606,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D12" s="7">
-        <v>29281</v>
+        <v>30379</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -2621,10 +2621,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="I12" s="7">
-        <v>26838</v>
+        <v>21856</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -2636,10 +2636,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N12" s="7">
-        <v>56119</v>
+        <v>52235</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2822,7 +2822,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E876670-6009-4651-9A47-37A102D01063}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A89F80C6-B6EB-4219-ABC4-60AFD4CBF087}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3095,10 +3095,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D7" s="7">
-        <v>5182</v>
+        <v>7131</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>179</v>
@@ -3113,7 +3113,7 @@
         <v>9</v>
       </c>
       <c r="I7" s="7">
-        <v>5822</v>
+        <v>6060</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>182</v>
@@ -3125,10 +3125,10 @@
         <v>184</v>
       </c>
       <c r="M7" s="7">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="N7" s="7">
-        <v>11004</v>
+        <v>13190</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>185</v>
@@ -3146,10 +3146,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D8" s="7">
-        <v>10514</v>
+        <v>7371</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>188</v>
@@ -3161,10 +3161,10 @@
         <v>190</v>
       </c>
       <c r="H8" s="7">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I8" s="7">
-        <v>8654</v>
+        <v>8565</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>191</v>
@@ -3176,10 +3176,10 @@
         <v>193</v>
       </c>
       <c r="M8" s="7">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N8" s="7">
-        <v>19169</v>
+        <v>15937</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>194</v>
@@ -3200,7 +3200,7 @@
         <v>21</v>
       </c>
       <c r="D9" s="7">
-        <v>15696</v>
+        <v>14502</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3212,10 +3212,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I9" s="7">
-        <v>14476</v>
+        <v>14625</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3227,10 +3227,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="N9" s="7">
-        <v>30173</v>
+        <v>29127</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3250,10 +3250,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D10" s="7">
-        <v>7131</v>
+        <v>5182</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>197</v>
@@ -3268,7 +3268,7 @@
         <v>9</v>
       </c>
       <c r="I10" s="7">
-        <v>6060</v>
+        <v>5822</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>200</v>
@@ -3280,10 +3280,10 @@
         <v>202</v>
       </c>
       <c r="M10" s="7">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="N10" s="7">
-        <v>13190</v>
+        <v>11004</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>203</v>
@@ -3301,10 +3301,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D11" s="7">
-        <v>7371</v>
+        <v>10514</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>206</v>
@@ -3316,10 +3316,10 @@
         <v>208</v>
       </c>
       <c r="H11" s="7">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I11" s="7">
-        <v>8565</v>
+        <v>8654</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>209</v>
@@ -3331,10 +3331,10 @@
         <v>211</v>
       </c>
       <c r="M11" s="7">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N11" s="7">
-        <v>15937</v>
+        <v>19169</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>212</v>
@@ -3355,7 +3355,7 @@
         <v>21</v>
       </c>
       <c r="D12" s="7">
-        <v>14502</v>
+        <v>15696</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -3367,10 +3367,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I12" s="7">
-        <v>14625</v>
+        <v>14476</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3382,10 +3382,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="N12" s="7">
-        <v>29127</v>
+        <v>30173</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -3568,7 +3568,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFEEA05F-9204-4A33-9FF5-F59D4B5749D3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB5DDC1A-678E-491A-9184-856CFCC4FAE7}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3841,10 +3841,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D7" s="7">
-        <v>11093</v>
+        <v>4944</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>250</v>
@@ -3856,10 +3856,10 @@
         <v>252</v>
       </c>
       <c r="H7" s="7">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="I7" s="7">
-        <v>6891</v>
+        <v>1657</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>253</v>
@@ -3868,16 +3868,16 @@
         <v>254</v>
       </c>
       <c r="L7" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="M7" s="7">
+        <v>10</v>
+      </c>
+      <c r="N7" s="7">
+        <v>6601</v>
+      </c>
+      <c r="O7" s="7" t="s">
         <v>255</v>
-      </c>
-      <c r="M7" s="7">
-        <v>24</v>
-      </c>
-      <c r="N7" s="7">
-        <v>17983</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>11</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>256</v>
@@ -3892,10 +3892,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="D8" s="7">
-        <v>34833</v>
+        <v>19565</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>258</v>
@@ -3907,28 +3907,28 @@
         <v>260</v>
       </c>
       <c r="H8" s="7">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="I8" s="7">
-        <v>30208</v>
+        <v>10048</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>261</v>
       </c>
       <c r="K8" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="L8" s="7" t="s">
+      <c r="M8" s="7">
+        <v>41</v>
+      </c>
+      <c r="N8" s="7">
+        <v>29613</v>
+      </c>
+      <c r="O8" s="7" t="s">
         <v>263</v>
-      </c>
-      <c r="M8" s="7">
-        <v>76</v>
-      </c>
-      <c r="N8" s="7">
-        <v>65042</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>264</v>
@@ -3943,10 +3943,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="D9" s="7">
-        <v>45926</v>
+        <v>24509</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3958,10 +3958,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="I9" s="7">
-        <v>37099</v>
+        <v>11705</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3973,10 +3973,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>100</v>
+        <v>51</v>
       </c>
       <c r="N9" s="7">
-        <v>83025</v>
+        <v>36214</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3996,10 +3996,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D10" s="7">
-        <v>4944</v>
+        <v>11093</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>266</v>
@@ -4011,10 +4011,10 @@
         <v>268</v>
       </c>
       <c r="H10" s="7">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="I10" s="7">
-        <v>1657</v>
+        <v>6891</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>269</v>
@@ -4023,16 +4023,16 @@
         <v>270</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>173</v>
+        <v>271</v>
       </c>
       <c r="M10" s="7">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="N10" s="7">
-        <v>6601</v>
+        <v>17983</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>271</v>
+        <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>272</v>
@@ -4047,10 +4047,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="D11" s="7">
-        <v>19565</v>
+        <v>34833</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>274</v>
@@ -4062,28 +4062,28 @@
         <v>276</v>
       </c>
       <c r="H11" s="7">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="I11" s="7">
-        <v>10048</v>
+        <v>30208</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>277</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>164</v>
+        <v>278</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="M11" s="7">
-        <v>41</v>
+        <v>76</v>
       </c>
       <c r="N11" s="7">
-        <v>29613</v>
+        <v>65042</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>279</v>
+        <v>21</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>280</v>
@@ -4098,10 +4098,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="D12" s="7">
-        <v>24509</v>
+        <v>45926</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -4113,10 +4113,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="I12" s="7">
-        <v>11705</v>
+        <v>37099</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4128,10 +4128,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>51</v>
+        <v>100</v>
       </c>
       <c r="N12" s="7">
-        <v>36214</v>
+        <v>83025</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>

--- a/data/trans_orig/IP09B02-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP09B02-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E1F4BC40-91B4-4E9A-A890-8E1942E4A262}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{57BB5878-0489-4FEA-955E-90A81D4B8534}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{0E85E4FF-7E5C-47B3-8518-8BA3C10458BF}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C8DA5966-7FB1-4DC3-993B-44AA35712559}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="372">
   <si>
     <t>Menores según afecte para realizar actividades com pasear, hacer deporte,... dicha enfermedad, dolencia.. en 2007 (Tasa respuesta: 9,7%)</t>
   </si>
@@ -68,877 +68,1093 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>0/4</t>
+    <t>0-2</t>
+  </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>81,61%</t>
+  </si>
+  <si>
+    <t>58,18%</t>
+  </si>
+  <si>
+    <t>95,42%</t>
+  </si>
+  <si>
+    <t>49,27%</t>
+  </si>
+  <si>
+    <t>23,82%</t>
+  </si>
+  <si>
+    <t>74,67%</t>
+  </si>
+  <si>
+    <t>68,77%</t>
+  </si>
+  <si>
+    <t>52,43%</t>
+  </si>
+  <si>
+    <t>83,54%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>21,66%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>36,78%</t>
+    <t>18,39%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>41,82%</t>
+  </si>
+  <si>
+    <t>50,73%</t>
+  </si>
+  <si>
+    <t>25,33%</t>
+  </si>
+  <si>
+    <t>76,18%</t>
+  </si>
+  <si>
+    <t>31,23%</t>
+  </si>
+  <si>
+    <t>16,46%</t>
+  </si>
+  <si>
+    <t>47,57%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>75,37%</t>
+  </si>
+  <si>
+    <t>61,98%</t>
+  </si>
+  <si>
+    <t>86,63%</t>
+  </si>
+  <si>
+    <t>75,58%</t>
+  </si>
+  <si>
+    <t>58,06%</t>
+  </si>
+  <si>
+    <t>88,5%</t>
+  </si>
+  <si>
+    <t>75,46%</t>
+  </si>
+  <si>
+    <t>65,31%</t>
+  </si>
+  <si>
+    <t>83,72%</t>
+  </si>
+  <si>
+    <t>24,63%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>38,02%</t>
+  </si>
+  <si>
+    <t>24,42%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>41,94%</t>
+  </si>
+  <si>
+    <t>24,54%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>34,69%</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>89,91%</t>
+  </si>
+  <si>
+    <t>70,41%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>75,35%</t>
+  </si>
+  <si>
+    <t>52,65%</t>
+  </si>
+  <si>
+    <t>90,67%</t>
+  </si>
+  <si>
+    <t>82,97%</t>
+  </si>
+  <si>
+    <t>69,44%</t>
+  </si>
+  <si>
+    <t>93,14%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>29,59%</t>
+  </si>
+  <si>
+    <t>24,65%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>47,35%</t>
+  </si>
+  <si>
+    <t>17,03%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>30,56%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>88,62%</t>
+  </si>
+  <si>
+    <t>73,11%</t>
+  </si>
+  <si>
+    <t>96,4%</t>
+  </si>
+  <si>
+    <t>74,07%</t>
+  </si>
+  <si>
+    <t>41,76%</t>
+  </si>
+  <si>
+    <t>92,06%</t>
+  </si>
+  <si>
+    <t>84,16%</t>
+  </si>
+  <si>
+    <t>70,57%</t>
+  </si>
+  <si>
+    <t>94,34%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>26,89%</t>
+  </si>
+  <si>
+    <t>25,93%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>58,24%</t>
+  </si>
+  <si>
+    <t>15,84%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>29,43%</t>
+  </si>
+  <si>
+    <t>81,98%</t>
+  </si>
+  <si>
+    <t>74,36%</t>
+  </si>
+  <si>
+    <t>87,96%</t>
+  </si>
+  <si>
+    <t>70,89%</t>
+  </si>
+  <si>
+    <t>59,88%</t>
+  </si>
+  <si>
+    <t>79,74%</t>
+  </si>
+  <si>
+    <t>77,5%</t>
+  </si>
+  <si>
+    <t>71,36%</t>
+  </si>
+  <si>
+    <t>83,15%</t>
+  </si>
+  <si>
+    <t>18,02%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>25,64%</t>
+  </si>
+  <si>
+    <t>29,11%</t>
+  </si>
+  <si>
+    <t>20,26%</t>
+  </si>
+  <si>
+    <t>40,12%</t>
+  </si>
+  <si>
+    <t>22,5%</t>
+  </si>
+  <si>
+    <t>16,85%</t>
+  </si>
+  <si>
+    <t>28,64%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según afecte para realizar actividades com pasear, hacer deporte,... dicha enfermedad, dolencia.. en 2012 (Tasa respuesta: 12,39%)</t>
+  </si>
+  <si>
+    <t>39,74%</t>
+  </si>
+  <si>
+    <t>23,19%</t>
+  </si>
+  <si>
+    <t>56,47%</t>
+  </si>
+  <si>
+    <t>43,1%</t>
+  </si>
+  <si>
+    <t>25,73%</t>
+  </si>
+  <si>
+    <t>63,18%</t>
+  </si>
+  <si>
+    <t>41,35%</t>
+  </si>
+  <si>
+    <t>28,89%</t>
+  </si>
+  <si>
+    <t>54,82%</t>
+  </si>
+  <si>
+    <t>60,26%</t>
+  </si>
+  <si>
+    <t>43,53%</t>
+  </si>
+  <si>
+    <t>76,81%</t>
+  </si>
+  <si>
+    <t>56,9%</t>
+  </si>
+  <si>
+    <t>36,82%</t>
+  </si>
+  <si>
+    <t>74,27%</t>
+  </si>
+  <si>
+    <t>58,65%</t>
+  </si>
+  <si>
+    <t>45,18%</t>
+  </si>
+  <si>
+    <t>71,11%</t>
+  </si>
+  <si>
+    <t>69,6%</t>
+  </si>
+  <si>
+    <t>55,86%</t>
+  </si>
+  <si>
+    <t>80,96%</t>
+  </si>
+  <si>
+    <t>72,92%</t>
+  </si>
+  <si>
+    <t>59,4%</t>
+  </si>
+  <si>
+    <t>85,52%</t>
+  </si>
+  <si>
+    <t>71,02%</t>
+  </si>
+  <si>
+    <t>60,59%</t>
+  </si>
+  <si>
+    <t>79,41%</t>
+  </si>
+  <si>
+    <t>30,4%</t>
+  </si>
+  <si>
+    <t>19,04%</t>
+  </si>
+  <si>
+    <t>44,14%</t>
+  </si>
+  <si>
+    <t>27,08%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>40,6%</t>
+  </si>
+  <si>
+    <t>28,98%</t>
+  </si>
+  <si>
+    <t>20,59%</t>
+  </si>
+  <si>
+    <t>39,41%</t>
+  </si>
+  <si>
+    <t>58,84%</t>
+  </si>
+  <si>
+    <t>38,19%</t>
+  </si>
+  <si>
+    <t>81,82%</t>
+  </si>
+  <si>
+    <t>64,84%</t>
+  </si>
+  <si>
+    <t>46,38%</t>
+  </si>
+  <si>
+    <t>80,84%</t>
+  </si>
+  <si>
+    <t>62,29%</t>
+  </si>
+  <si>
+    <t>49,51%</t>
+  </si>
+  <si>
+    <t>41,16%</t>
+  </si>
+  <si>
+    <t>18,18%</t>
+  </si>
+  <si>
+    <t>61,81%</t>
+  </si>
+  <si>
+    <t>35,16%</t>
+  </si>
+  <si>
+    <t>19,16%</t>
+  </si>
+  <si>
+    <t>53,62%</t>
+  </si>
+  <si>
+    <t>37,71%</t>
+  </si>
+  <si>
+    <t>50,49%</t>
+  </si>
+  <si>
+    <t>77,29%</t>
+  </si>
+  <si>
+    <t>60,19%</t>
+  </si>
+  <si>
+    <t>89,85%</t>
+  </si>
+  <si>
+    <t>65,54%</t>
+  </si>
+  <si>
+    <t>41,39%</t>
+  </si>
+  <si>
+    <t>84,42%</t>
+  </si>
+  <si>
+    <t>73,02%</t>
+  </si>
+  <si>
+    <t>59,97%</t>
+  </si>
+  <si>
+    <t>83,34%</t>
+  </si>
+  <si>
+    <t>22,71%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>39,81%</t>
+  </si>
+  <si>
+    <t>34,46%</t>
+  </si>
+  <si>
+    <t>15,58%</t>
+  </si>
+  <si>
+    <t>58,61%</t>
+  </si>
+  <si>
+    <t>26,98%</t>
+  </si>
+  <si>
+    <t>16,66%</t>
+  </si>
+  <si>
+    <t>40,03%</t>
+  </si>
+  <si>
+    <t>63,09%</t>
+  </si>
+  <si>
+    <t>54,32%</t>
+  </si>
+  <si>
+    <t>70,86%</t>
+  </si>
+  <si>
+    <t>62,34%</t>
+  </si>
+  <si>
+    <t>54,08%</t>
+  </si>
+  <si>
+    <t>70,67%</t>
+  </si>
+  <si>
+    <t>62,75%</t>
+  </si>
+  <si>
+    <t>56,77%</t>
+  </si>
+  <si>
+    <t>68,45%</t>
+  </si>
+  <si>
+    <t>36,91%</t>
+  </si>
+  <si>
+    <t>29,14%</t>
+  </si>
+  <si>
+    <t>45,68%</t>
+  </si>
+  <si>
+    <t>37,66%</t>
+  </si>
+  <si>
+    <t>29,33%</t>
+  </si>
+  <si>
+    <t>45,92%</t>
+  </si>
+  <si>
+    <t>37,25%</t>
+  </si>
+  <si>
+    <t>31,55%</t>
+  </si>
+  <si>
+    <t>43,23%</t>
+  </si>
+  <si>
+    <t>Menores según afecte para realizar actividades com pasear, hacer deporte,... dicha enfermedad, dolencia.. en 2015 (Tasa respuesta: 6,87%)</t>
+  </si>
+  <si>
+    <t>42,33%</t>
+  </si>
+  <si>
+    <t>20,36%</t>
+  </si>
+  <si>
+    <t>63,46%</t>
+  </si>
+  <si>
+    <t>21,8%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>45,24%</t>
+  </si>
+  <si>
+    <t>33,42%</t>
+  </si>
+  <si>
+    <t>18,38%</t>
+  </si>
+  <si>
+    <t>50,79%</t>
+  </si>
+  <si>
+    <t>57,67%</t>
+  </si>
+  <si>
+    <t>36,54%</t>
+  </si>
+  <si>
+    <t>79,64%</t>
+  </si>
+  <si>
+    <t>78,2%</t>
+  </si>
+  <si>
+    <t>54,76%</t>
+  </si>
+  <si>
+    <t>94,43%</t>
+  </si>
+  <si>
+    <t>66,58%</t>
+  </si>
+  <si>
+    <t>49,21%</t>
+  </si>
+  <si>
+    <t>81,62%</t>
+  </si>
+  <si>
+    <t>53,42%</t>
+  </si>
+  <si>
+    <t>35,88%</t>
+  </si>
+  <si>
+    <t>71,81%</t>
+  </si>
+  <si>
+    <t>63,36%</t>
+  </si>
+  <si>
+    <t>42,62%</t>
+  </si>
+  <si>
+    <t>79,71%</t>
+  </si>
+  <si>
+    <t>58,07%</t>
+  </si>
+  <si>
+    <t>46,31%</t>
+  </si>
+  <si>
+    <t>70,21%</t>
+  </si>
+  <si>
+    <t>46,58%</t>
+  </si>
+  <si>
+    <t>28,19%</t>
+  </si>
+  <si>
+    <t>64,12%</t>
+  </si>
+  <si>
+    <t>36,64%</t>
+  </si>
+  <si>
+    <t>20,29%</t>
+  </si>
+  <si>
+    <t>57,38%</t>
+  </si>
+  <si>
+    <t>41,93%</t>
+  </si>
+  <si>
+    <t>29,79%</t>
+  </si>
+  <si>
+    <t>53,69%</t>
+  </si>
+  <si>
+    <t>60,95%</t>
+  </si>
+  <si>
+    <t>23,03%</t>
+  </si>
+  <si>
+    <t>87,81%</t>
+  </si>
+  <si>
+    <t>67,16%</t>
+  </si>
+  <si>
+    <t>31,53%</t>
+  </si>
+  <si>
+    <t>92,44%</t>
+  </si>
+  <si>
+    <t>64,58%</t>
+  </si>
+  <si>
+    <t>41,84%</t>
+  </si>
+  <si>
+    <t>39,05%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>76,97%</t>
+  </si>
+  <si>
+    <t>32,84%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>68,47%</t>
+  </si>
+  <si>
+    <t>35,42%</t>
+  </si>
+  <si>
+    <t>58,16%</t>
+  </si>
+  <si>
+    <t>69,51%</t>
+  </si>
+  <si>
+    <t>43,4%</t>
+  </si>
+  <si>
+    <t>89,01%</t>
+  </si>
+  <si>
+    <t>44,79%</t>
+  </si>
+  <si>
+    <t>20,79%</t>
+  </si>
+  <si>
+    <t>69,98%</t>
+  </si>
+  <si>
+    <t>57,85%</t>
+  </si>
+  <si>
+    <t>39,78%</t>
+  </si>
+  <si>
+    <t>77,32%</t>
+  </si>
+  <si>
+    <t>30,49%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>56,6%</t>
+  </si>
+  <si>
+    <t>55,21%</t>
+  </si>
+  <si>
+    <t>30,02%</t>
+  </si>
+  <si>
+    <t>79,21%</t>
+  </si>
+  <si>
+    <t>42,15%</t>
+  </si>
+  <si>
+    <t>22,68%</t>
+  </si>
+  <si>
+    <t>60,22%</t>
+  </si>
+  <si>
+    <t>55,26%</t>
+  </si>
+  <si>
+    <t>45,06%</t>
+  </si>
+  <si>
+    <t>66,11%</t>
+  </si>
+  <si>
+    <t>51,34%</t>
+  </si>
+  <si>
+    <t>39,44%</t>
+  </si>
+  <si>
+    <t>63,5%</t>
+  </si>
+  <si>
+    <t>53,38%</t>
+  </si>
+  <si>
+    <t>45,02%</t>
+  </si>
+  <si>
+    <t>61,92%</t>
+  </si>
+  <si>
+    <t>44,74%</t>
+  </si>
+  <si>
+    <t>33,89%</t>
+  </si>
+  <si>
+    <t>54,94%</t>
+  </si>
+  <si>
+    <t>48,66%</t>
+  </si>
+  <si>
+    <t>36,5%</t>
+  </si>
+  <si>
+    <t>60,56%</t>
+  </si>
+  <si>
+    <t>46,62%</t>
+  </si>
+  <si>
+    <t>38,08%</t>
+  </si>
+  <si>
+    <t>54,98%</t>
+  </si>
+  <si>
+    <t>Menores según afecte para realizar actividades com pasear, hacer deporte,... dicha enfermedad, dolencia.. en 2023 (Tasa respuesta: 10,89%)</t>
+  </si>
+  <si>
+    <t>48,0%</t>
+  </si>
+  <si>
+    <t>27,15%</t>
+  </si>
+  <si>
+    <t>72,23%</t>
+  </si>
+  <si>
+    <t>56,66%</t>
+  </si>
+  <si>
+    <t>27,98%</t>
+  </si>
+  <si>
+    <t>81,14%</t>
+  </si>
+  <si>
+    <t>51,8%</t>
   </si>
   <si>
     <t>34,25%</t>
   </si>
   <si>
-    <t>17,09%</t>
-  </si>
-  <si>
-    <t>53,07%</t>
-  </si>
-  <si>
-    <t>26,25%</t>
-  </si>
-  <si>
-    <t>17,03%</t>
-  </si>
-  <si>
-    <t>37,04%</t>
-  </si>
-  <si>
-    <t>Sí</t>
-  </si>
-  <si>
-    <t>78,34%</t>
-  </si>
-  <si>
-    <t>63,22%</t>
-  </si>
-  <si>
-    <t>89,07%</t>
+    <t>68,36%</t>
+  </si>
+  <si>
+    <t>52,0%</t>
+  </si>
+  <si>
+    <t>27,77%</t>
+  </si>
+  <si>
+    <t>72,85%</t>
+  </si>
+  <si>
+    <t>43,34%</t>
+  </si>
+  <si>
+    <t>18,86%</t>
+  </si>
+  <si>
+    <t>72,02%</t>
+  </si>
+  <si>
+    <t>48,2%</t>
+  </si>
+  <si>
+    <t>31,64%</t>
   </si>
   <si>
     <t>65,75%</t>
   </si>
   <si>
-    <t>46,93%</t>
-  </si>
-  <si>
-    <t>82,91%</t>
-  </si>
-  <si>
-    <t>73,75%</t>
-  </si>
-  <si>
-    <t>62,96%</t>
-  </si>
-  <si>
-    <t>82,97%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>20,37%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>36,04%</t>
-  </si>
-  <si>
-    <t>26,41%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>44,05%</t>
-  </si>
-  <si>
-    <t>23,16%</t>
-  </si>
-  <si>
-    <t>13,78%</t>
-  </si>
-  <si>
-    <t>33,86%</t>
-  </si>
-  <si>
-    <t>79,63%</t>
-  </si>
-  <si>
-    <t>63,96%</t>
-  </si>
-  <si>
-    <t>89,85%</t>
-  </si>
-  <si>
-    <t>73,59%</t>
-  </si>
-  <si>
-    <t>55,95%</t>
-  </si>
-  <si>
-    <t>87,16%</t>
-  </si>
-  <si>
-    <t>76,84%</t>
-  </si>
-  <si>
-    <t>66,14%</t>
-  </si>
-  <si>
-    <t>86,22%</t>
-  </si>
-  <si>
-    <t>10/15</t>
-  </si>
-  <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>24,87%</t>
-  </si>
-  <si>
-    <t>27,24%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>47,78%</t>
-  </si>
-  <si>
-    <t>17,3%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>29,24%</t>
-  </si>
-  <si>
-    <t>88,77%</t>
-  </si>
-  <si>
-    <t>75,13%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
-  </si>
-  <si>
-    <t>72,76%</t>
-  </si>
-  <si>
-    <t>52,22%</t>
-  </si>
-  <si>
-    <t>90,06%</t>
-  </si>
-  <si>
-    <t>82,7%</t>
-  </si>
-  <si>
-    <t>70,76%</t>
-  </si>
-  <si>
-    <t>90,86%</t>
-  </si>
-  <si>
-    <t>18,02%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>25,39%</t>
-  </si>
-  <si>
-    <t>29,11%</t>
-  </si>
-  <si>
-    <t>20,47%</t>
-  </si>
-  <si>
-    <t>40,96%</t>
-  </si>
-  <si>
-    <t>22,5%</t>
-  </si>
-  <si>
-    <t>16,84%</t>
-  </si>
-  <si>
-    <t>28,24%</t>
-  </si>
-  <si>
-    <t>81,98%</t>
-  </si>
-  <si>
-    <t>74,61%</t>
-  </si>
-  <si>
-    <t>87,96%</t>
-  </si>
-  <si>
-    <t>70,89%</t>
-  </si>
-  <si>
-    <t>59,04%</t>
-  </si>
-  <si>
-    <t>79,53%</t>
-  </si>
-  <si>
-    <t>77,5%</t>
-  </si>
-  <si>
-    <t>71,76%</t>
-  </si>
-  <si>
-    <t>83,16%</t>
-  </si>
-  <si>
-    <t>Menores según afecte para realizar actividades com pasear, hacer deporte,... dicha enfermedad, dolencia.. en 2012 (Tasa respuesta: 12,39%)</t>
-  </si>
-  <si>
-    <t>49,38%</t>
-  </si>
-  <si>
-    <t>36,81%</t>
-  </si>
-  <si>
-    <t>63,44%</t>
-  </si>
-  <si>
-    <t>47,33%</t>
-  </si>
-  <si>
-    <t>34,12%</t>
-  </si>
-  <si>
-    <t>62,12%</t>
-  </si>
-  <si>
-    <t>48,43%</t>
-  </si>
-  <si>
-    <t>39,19%</t>
-  </si>
-  <si>
-    <t>58,27%</t>
-  </si>
-  <si>
-    <t>50,62%</t>
-  </si>
-  <si>
-    <t>36,56%</t>
-  </si>
-  <si>
-    <t>63,19%</t>
-  </si>
-  <si>
-    <t>52,67%</t>
-  </si>
-  <si>
-    <t>37,88%</t>
-  </si>
-  <si>
-    <t>65,88%</t>
-  </si>
-  <si>
-    <t>51,57%</t>
-  </si>
-  <si>
-    <t>41,73%</t>
-  </si>
-  <si>
-    <t>60,81%</t>
-  </si>
-  <si>
-    <t>29,1%</t>
-  </si>
-  <si>
-    <t>15,01%</t>
-  </si>
-  <si>
-    <t>43,94%</t>
-  </si>
-  <si>
-    <t>26,5%</t>
-  </si>
-  <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>41,25%</t>
-  </si>
-  <si>
-    <t>27,86%</t>
+    <t>66,79%</t>
+  </si>
+  <si>
+    <t>50,98%</t>
+  </si>
+  <si>
+    <t>78,45%</t>
+  </si>
+  <si>
+    <t>43,6%</t>
+  </si>
+  <si>
+    <t>95,27%</t>
+  </si>
+  <si>
+    <t>70,4%</t>
+  </si>
+  <si>
+    <t>55,16%</t>
+  </si>
+  <si>
+    <t>81,13%</t>
+  </si>
+  <si>
+    <t>33,21%</t>
+  </si>
+  <si>
+    <t>49,02%</t>
+  </si>
+  <si>
+    <t>21,55%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>56,4%</t>
+  </si>
+  <si>
+    <t>29,6%</t>
   </si>
   <si>
     <t>18,87%</t>
   </si>
   <si>
-    <t>38,85%</t>
-  </si>
-  <si>
-    <t>70,9%</t>
-  </si>
-  <si>
-    <t>56,06%</t>
-  </si>
-  <si>
-    <t>84,99%</t>
-  </si>
-  <si>
-    <t>73,5%</t>
-  </si>
-  <si>
-    <t>58,75%</t>
-  </si>
-  <si>
-    <t>86,82%</t>
-  </si>
-  <si>
-    <t>72,14%</t>
-  </si>
-  <si>
-    <t>61,15%</t>
-  </si>
-  <si>
-    <t>81,13%</t>
-  </si>
-  <si>
-    <t>28,58%</t>
-  </si>
-  <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>42,58%</t>
-  </si>
-  <si>
-    <t>36,5%</t>
-  </si>
-  <si>
-    <t>21,11%</t>
-  </si>
-  <si>
-    <t>53,54%</t>
-  </si>
-  <si>
-    <t>31,9%</t>
-  </si>
-  <si>
-    <t>21,74%</t>
-  </si>
-  <si>
-    <t>42,09%</t>
-  </si>
-  <si>
-    <t>71,42%</t>
-  </si>
-  <si>
-    <t>57,42%</t>
-  </si>
-  <si>
-    <t>84,33%</t>
-  </si>
-  <si>
-    <t>63,5%</t>
-  </si>
-  <si>
-    <t>46,46%</t>
-  </si>
-  <si>
-    <t>78,89%</t>
-  </si>
-  <si>
-    <t>68,1%</t>
-  </si>
-  <si>
-    <t>57,91%</t>
-  </si>
-  <si>
-    <t>78,26%</t>
-  </si>
-  <si>
-    <t>36,91%</t>
-  </si>
-  <si>
-    <t>29,02%</t>
-  </si>
-  <si>
-    <t>44,68%</t>
-  </si>
-  <si>
-    <t>37,66%</t>
-  </si>
-  <si>
-    <t>29,59%</t>
-  </si>
-  <si>
-    <t>47,03%</t>
-  </si>
-  <si>
-    <t>37,25%</t>
-  </si>
-  <si>
-    <t>31,95%</t>
-  </si>
-  <si>
-    <t>43,61%</t>
-  </si>
-  <si>
-    <t>63,09%</t>
-  </si>
-  <si>
-    <t>55,32%</t>
-  </si>
-  <si>
-    <t>70,98%</t>
-  </si>
-  <si>
-    <t>62,34%</t>
-  </si>
-  <si>
-    <t>52,97%</t>
-  </si>
-  <si>
-    <t>70,41%</t>
-  </si>
-  <si>
-    <t>62,75%</t>
-  </si>
-  <si>
-    <t>56,39%</t>
-  </si>
-  <si>
-    <t>68,05%</t>
-  </si>
-  <si>
-    <t>Menores según afecte para realizar actividades com pasear, hacer deporte,... dicha enfermedad, dolencia.. en 2015 (Tasa respuesta: 6,87%)</t>
-  </si>
-  <si>
-    <t>50,38%</t>
-  </si>
-  <si>
-    <t>31,7%</t>
-  </si>
-  <si>
-    <t>68,53%</t>
-  </si>
-  <si>
-    <t>61,31%</t>
-  </si>
-  <si>
-    <t>40,67%</t>
-  </si>
-  <si>
-    <t>77,61%</t>
-  </si>
-  <si>
-    <t>55,4%</t>
-  </si>
-  <si>
-    <t>42,73%</t>
-  </si>
-  <si>
-    <t>66,96%</t>
-  </si>
-  <si>
-    <t>49,62%</t>
-  </si>
-  <si>
-    <t>31,47%</t>
-  </si>
-  <si>
-    <t>68,3%</t>
-  </si>
-  <si>
-    <t>38,69%</t>
-  </si>
-  <si>
-    <t>22,39%</t>
-  </si>
-  <si>
-    <t>59,33%</t>
-  </si>
-  <si>
-    <t>44,6%</t>
-  </si>
-  <si>
-    <t>33,04%</t>
-  </si>
-  <si>
-    <t>57,27%</t>
-  </si>
-  <si>
-    <t>49,17%</t>
-  </si>
-  <si>
-    <t>27,98%</t>
-  </si>
-  <si>
-    <t>71,46%</t>
-  </si>
-  <si>
-    <t>41,43%</t>
-  </si>
-  <si>
-    <t>22,65%</t>
-  </si>
-  <si>
-    <t>65,6%</t>
-  </si>
-  <si>
-    <t>45,29%</t>
-  </si>
-  <si>
-    <t>28,55%</t>
-  </si>
-  <si>
-    <t>59,37%</t>
-  </si>
-  <si>
-    <t>50,83%</t>
-  </si>
-  <si>
-    <t>28,54%</t>
-  </si>
-  <si>
-    <t>72,02%</t>
-  </si>
-  <si>
-    <t>58,57%</t>
-  </si>
-  <si>
-    <t>34,4%</t>
-  </si>
-  <si>
-    <t>77,35%</t>
-  </si>
-  <si>
-    <t>54,71%</t>
-  </si>
-  <si>
-    <t>40,63%</t>
-  </si>
-  <si>
-    <t>71,45%</t>
-  </si>
-  <si>
-    <t>33,01%</t>
-  </si>
-  <si>
-    <t>14,54%</t>
-  </si>
-  <si>
-    <t>53,15%</t>
-  </si>
-  <si>
-    <t>40,22%</t>
-  </si>
-  <si>
-    <t>20,57%</t>
-  </si>
-  <si>
-    <t>64,5%</t>
-  </si>
-  <si>
-    <t>36,47%</t>
-  </si>
-  <si>
-    <t>22,67%</t>
-  </si>
-  <si>
-    <t>51,86%</t>
-  </si>
-  <si>
-    <t>66,99%</t>
-  </si>
-  <si>
-    <t>46,85%</t>
-  </si>
-  <si>
-    <t>85,46%</t>
-  </si>
-  <si>
-    <t>59,78%</t>
-  </si>
-  <si>
-    <t>35,5%</t>
-  </si>
-  <si>
-    <t>79,43%</t>
-  </si>
-  <si>
-    <t>63,53%</t>
-  </si>
-  <si>
-    <t>48,14%</t>
-  </si>
-  <si>
-    <t>77,33%</t>
-  </si>
-  <si>
-    <t>44,74%</t>
-  </si>
-  <si>
-    <t>33,15%</t>
-  </si>
-  <si>
-    <t>56,65%</t>
-  </si>
-  <si>
-    <t>48,66%</t>
-  </si>
-  <si>
-    <t>37,45%</t>
-  </si>
-  <si>
-    <t>60,34%</t>
-  </si>
-  <si>
-    <t>46,62%</t>
-  </si>
-  <si>
-    <t>38,78%</t>
-  </si>
-  <si>
-    <t>54,66%</t>
-  </si>
-  <si>
-    <t>55,26%</t>
-  </si>
-  <si>
-    <t>43,35%</t>
-  </si>
-  <si>
-    <t>66,85%</t>
-  </si>
-  <si>
-    <t>51,34%</t>
-  </si>
-  <si>
-    <t>39,66%</t>
-  </si>
-  <si>
-    <t>62,55%</t>
-  </si>
-  <si>
-    <t>53,38%</t>
-  </si>
-  <si>
-    <t>45,34%</t>
-  </si>
-  <si>
-    <t>61,22%</t>
-  </si>
-  <si>
-    <t>Menores según afecte para realizar actividades com pasear, hacer deporte,... dicha enfermedad, dolencia.. en 2023 (Tasa respuesta: 10,89%)</t>
-  </si>
-  <si>
-    <t>30,69%</t>
-  </si>
-  <si>
-    <t>64,53%</t>
-  </si>
-  <si>
-    <t>32,62%</t>
-  </si>
-  <si>
-    <t>15,59%</t>
-  </si>
-  <si>
-    <t>60,35%</t>
-  </si>
-  <si>
-    <t>41,45%</t>
-  </si>
-  <si>
-    <t>28,75%</t>
-  </si>
-  <si>
-    <t>55,21%</t>
-  </si>
-  <si>
-    <t>35,47%</t>
-  </si>
-  <si>
-    <t>69,31%</t>
-  </si>
-  <si>
-    <t>67,38%</t>
-  </si>
-  <si>
-    <t>39,65%</t>
-  </si>
-  <si>
-    <t>84,41%</t>
-  </si>
-  <si>
-    <t>58,55%</t>
-  </si>
-  <si>
-    <t>44,79%</t>
-  </si>
-  <si>
-    <t>71,25%</t>
-  </si>
-  <si>
-    <t>20,17%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>36,48%</t>
-  </si>
-  <si>
-    <t>14,15%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>18,23%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>30,77%</t>
-  </si>
-  <si>
-    <t>79,83%</t>
-  </si>
-  <si>
-    <t>63,52%</t>
-  </si>
-  <si>
-    <t>90,5%</t>
-  </si>
-  <si>
-    <t>85,85%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>81,77%</t>
-  </si>
-  <si>
-    <t>69,23%</t>
-  </si>
-  <si>
-    <t>91,42%</t>
-  </si>
-  <si>
-    <t>24,15%</t>
-  </si>
-  <si>
-    <t>12,98%</t>
-  </si>
-  <si>
-    <t>37,38%</t>
-  </si>
-  <si>
-    <t>18,57%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>31,86%</t>
-  </si>
-  <si>
-    <t>13,71%</t>
-  </si>
-  <si>
-    <t>30,83%</t>
-  </si>
-  <si>
-    <t>75,85%</t>
-  </si>
-  <si>
-    <t>62,62%</t>
-  </si>
-  <si>
-    <t>87,02%</t>
-  </si>
-  <si>
-    <t>81,43%</t>
-  </si>
-  <si>
-    <t>68,14%</t>
-  </si>
-  <si>
-    <t>90,93%</t>
-  </si>
-  <si>
-    <t>69,17%</t>
-  </si>
-  <si>
-    <t>86,29%</t>
+    <t>44,84%</t>
+  </si>
+  <si>
+    <t>76,11%</t>
+  </si>
+  <si>
+    <t>89,23%</t>
+  </si>
+  <si>
+    <t>84,58%</t>
+  </si>
+  <si>
+    <t>60,62%</t>
+  </si>
+  <si>
+    <t>95,36%</t>
+  </si>
+  <si>
+    <t>79,79%</t>
+  </si>
+  <si>
+    <t>65,41%</t>
+  </si>
+  <si>
+    <t>89,53%</t>
+  </si>
+  <si>
+    <t>23,89%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>15,42%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>39,38%</t>
+  </si>
+  <si>
+    <t>20,21%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>34,59%</t>
+  </si>
+  <si>
+    <t>79,66%</t>
+  </si>
+  <si>
+    <t>63,47%</t>
+  </si>
+  <si>
+    <t>91,54%</t>
+  </si>
+  <si>
+    <t>83,71%</t>
+  </si>
+  <si>
+    <t>66,89%</t>
+  </si>
+  <si>
+    <t>93,03%</t>
+  </si>
+  <si>
+    <t>81,37%</t>
+  </si>
+  <si>
+    <t>70,13%</t>
+  </si>
+  <si>
+    <t>90,11%</t>
+  </si>
+  <si>
+    <t>20,34%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>36,53%</t>
+  </si>
+  <si>
+    <t>16,29%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>33,11%</t>
+  </si>
+  <si>
+    <t>18,63%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>29,87%</t>
+  </si>
+  <si>
+    <t>72,05%</t>
+  </si>
+  <si>
+    <t>63,41%</t>
+  </si>
+  <si>
+    <t>80,24%</t>
+  </si>
+  <si>
+    <t>79,49%</t>
+  </si>
+  <si>
+    <t>69,28%</t>
+  </si>
+  <si>
+    <t>87,36%</t>
+  </si>
+  <si>
+    <t>75,06%</t>
+  </si>
+  <si>
+    <t>69,06%</t>
+  </si>
+  <si>
+    <t>81,3%</t>
   </si>
   <si>
     <t>27,95%</t>
   </si>
   <si>
-    <t>19,32%</t>
-  </si>
-  <si>
-    <t>36,65%</t>
+    <t>19,76%</t>
+  </si>
+  <si>
+    <t>36,59%</t>
   </si>
   <si>
     <t>20,51%</t>
   </si>
   <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>30,9%</t>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>30,72%</t>
   </si>
   <si>
     <t>24,94%</t>
   </si>
   <si>
-    <t>19,15%</t>
-  </si>
-  <si>
-    <t>31,13%</t>
-  </si>
-  <si>
-    <t>72,05%</t>
-  </si>
-  <si>
-    <t>63,35%</t>
-  </si>
-  <si>
-    <t>80,68%</t>
-  </si>
-  <si>
-    <t>79,49%</t>
-  </si>
-  <si>
-    <t>69,1%</t>
-  </si>
-  <si>
-    <t>86,66%</t>
-  </si>
-  <si>
-    <t>75,06%</t>
-  </si>
-  <si>
-    <t>68,87%</t>
-  </si>
-  <si>
-    <t>80,85%</t>
+    <t>18,7%</t>
+  </si>
+  <si>
+    <t>30,94%</t>
   </si>
 </sst>
 </file>
@@ -949,7 +1165,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1045,39 +1261,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1129,7 +1345,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1240,13 +1456,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -1255,6 +1464,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1319,19 +1535,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{250D7C19-D592-44EB-B8E8-D444B96E7AF2}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB1658C6-2C72-4531-BA3A-DB342FAFB4F6}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1448,10 +1684,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D4" s="7">
-        <v>6615</v>
+        <v>11575</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1463,10 +1699,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I4" s="7">
-        <v>5992</v>
+        <v>4600</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1478,10 +1714,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="N4" s="7">
-        <v>12608</v>
+        <v>16174</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1499,10 +1735,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="D5" s="7">
-        <v>23926</v>
+        <v>2608</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1514,10 +1750,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="I5" s="7">
-        <v>11503</v>
+        <v>4736</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1529,10 +1765,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="N5" s="7">
-        <v>35428</v>
+        <v>7345</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1550,10 +1786,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="D6" s="7">
-        <v>30541</v>
+        <v>14183</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1565,10 +1801,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="I6" s="7">
-        <v>17495</v>
+        <v>9336</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1580,10 +1816,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>72</v>
+        <v>35</v>
       </c>
       <c r="N6" s="7">
-        <v>48036</v>
+        <v>23519</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1603,10 +1839,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="D7" s="7">
-        <v>5331</v>
+        <v>26487</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1618,10 +1854,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="I7" s="7">
-        <v>5964</v>
+        <v>18642</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1633,10 +1869,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="N7" s="7">
-        <v>11295</v>
+        <v>45130</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1654,10 +1890,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="D8" s="7">
-        <v>20846</v>
+        <v>8654</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1669,10 +1905,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="I8" s="7">
-        <v>16620</v>
+        <v>6023</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1684,10 +1920,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="N8" s="7">
-        <v>37466</v>
+        <v>14676</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1705,10 +1941,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="D9" s="7">
-        <v>26177</v>
+        <v>35141</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1720,10 +1956,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="I9" s="7">
-        <v>22584</v>
+        <v>24665</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1735,10 +1971,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="N9" s="7">
-        <v>48761</v>
+        <v>59806</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1758,10 +1994,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="D10" s="7">
-        <v>2854</v>
+        <v>13521</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1773,10 +2009,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="I10" s="7">
-        <v>4222</v>
+        <v>10322</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -1788,10 +2024,10 @@
         <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="N10" s="7">
-        <v>7075</v>
+        <v>23843</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -1809,10 +2045,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>34</v>
+        <v>2</v>
       </c>
       <c r="D11" s="7">
-        <v>22558</v>
+        <v>1517</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -1824,10 +2060,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="I11" s="7">
-        <v>11273</v>
+        <v>3377</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -1839,10 +2075,10 @@
         <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>51</v>
+        <v>7</v>
       </c>
       <c r="N11" s="7">
-        <v>33832</v>
+        <v>4894</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -1860,10 +2096,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="D12" s="7">
-        <v>25412</v>
+        <v>15038</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1875,10 +2111,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I12" s="7">
-        <v>15495</v>
+        <v>13699</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1890,10 +2126,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="N12" s="7">
-        <v>40907</v>
+        <v>28737</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1907,55 +2143,55 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D13" s="7">
-        <v>14800</v>
+        <v>15748</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="I13" s="7">
-        <v>16178</v>
+        <v>5832</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M13" s="7">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="N13" s="7">
-        <v>30978</v>
+        <v>21580</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1964,49 +2200,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>100</v>
+        <v>3</v>
       </c>
       <c r="D14" s="7">
-        <v>67331</v>
+        <v>2021</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
-        <v>59</v>
+        <v>3</v>
       </c>
       <c r="I14" s="7">
-        <v>39396</v>
+        <v>2042</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
-        <v>159</v>
+        <v>6</v>
       </c>
       <c r="N14" s="7">
-        <v>106727</v>
+        <v>4063</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2015,55 +2251,216 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>27</v>
+      </c>
+      <c r="D15" s="7">
+        <v>17769</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
+        <v>12</v>
+      </c>
+      <c r="I15" s="7">
+        <v>7874</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M15" s="7">
+        <v>39</v>
+      </c>
+      <c r="N15" s="7">
+        <v>25643</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>100</v>
+      </c>
+      <c r="D16" s="7">
+        <v>67331</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="H16" s="7">
+        <v>59</v>
+      </c>
+      <c r="I16" s="7">
+        <v>39396</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="M16" s="7">
+        <v>159</v>
+      </c>
+      <c r="N16" s="7">
+        <v>106727</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="7">
+        <v>22</v>
+      </c>
+      <c r="D17" s="7">
+        <v>14800</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="H17" s="7">
+        <v>23</v>
+      </c>
+      <c r="I17" s="7">
+        <v>16178</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="M17" s="7">
+        <v>45</v>
+      </c>
+      <c r="N17" s="7">
+        <v>30978</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
         <v>122</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D18" s="7">
         <v>82131</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
         <v>82</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I18" s="7">
         <v>55574</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="J18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M18" s="7">
         <v>204</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N18" s="7">
         <v>137705</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>30</v>
+      <c r="O18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2076,8 +2473,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C483C43F-BBAC-4926-991B-CEBE7FD42B96}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A285FD8-7925-4062-8C65-E08030CBC06D}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2093,7 +2490,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>87</v>
+        <v>107</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2194,49 +2591,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="D4" s="7">
-        <v>19074</v>
+        <v>8775</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>88</v>
+        <v>108</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>89</v>
+        <v>109</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="H4" s="7">
+        <v>13</v>
+      </c>
+      <c r="I4" s="7">
+        <v>8783</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="M4" s="7">
         <v>25</v>
       </c>
-      <c r="I4" s="7">
-        <v>15880</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="M4" s="7">
-        <v>53</v>
-      </c>
       <c r="N4" s="7">
-        <v>34953</v>
+        <v>17558</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>94</v>
+        <v>114</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>95</v>
+        <v>115</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>96</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2245,49 +2642,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D5" s="7">
-        <v>19551</v>
+        <v>13304</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>97</v>
+        <v>117</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>98</v>
+        <v>118</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>99</v>
+        <v>119</v>
       </c>
       <c r="H5" s="7">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="I5" s="7">
-        <v>17668</v>
+        <v>11598</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>102</v>
+        <v>122</v>
       </c>
       <c r="M5" s="7">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="N5" s="7">
-        <v>37219</v>
+        <v>24902</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>104</v>
+        <v>124</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>105</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2296,10 +2693,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="D6" s="7">
-        <v>38625</v>
+        <v>22079</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -2311,10 +2708,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="I6" s="7">
-        <v>33548</v>
+        <v>20381</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -2326,10 +2723,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>107</v>
+        <v>63</v>
       </c>
       <c r="N6" s="7">
-        <v>72172</v>
+        <v>42460</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -2349,49 +2746,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="D7" s="7">
-        <v>8521</v>
+        <v>26303</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>106</v>
+        <v>126</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>108</v>
+        <v>128</v>
       </c>
       <c r="H7" s="7">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="I7" s="7">
-        <v>7111</v>
+        <v>20629</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>109</v>
+        <v>129</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>111</v>
+        <v>131</v>
       </c>
       <c r="M7" s="7">
-        <v>21</v>
+        <v>67</v>
       </c>
       <c r="N7" s="7">
-        <v>15632</v>
+        <v>46932</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>112</v>
+        <v>132</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>113</v>
+        <v>133</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>114</v>
+        <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2400,49 +2797,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="D8" s="7">
-        <v>20760</v>
+        <v>11490</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>115</v>
+        <v>135</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>116</v>
+        <v>136</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>117</v>
+        <v>137</v>
       </c>
       <c r="H8" s="7">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="I8" s="7">
-        <v>19727</v>
+        <v>7659</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>118</v>
+        <v>138</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>119</v>
+        <v>139</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="M8" s="7">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="N8" s="7">
-        <v>40487</v>
+        <v>19149</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>121</v>
+        <v>141</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>122</v>
+        <v>142</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2451,10 +2848,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="D9" s="7">
-        <v>29281</v>
+        <v>37793</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -2466,10 +2863,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="I9" s="7">
-        <v>26838</v>
+        <v>28288</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -2481,10 +2878,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="N9" s="7">
-        <v>56119</v>
+        <v>66081</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -2507,46 +2904,46 @@
         <v>12</v>
       </c>
       <c r="D10" s="7">
-        <v>8683</v>
+        <v>8803</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>124</v>
+        <v>144</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>125</v>
+        <v>145</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>126</v>
+        <v>146</v>
       </c>
       <c r="H10" s="7">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I10" s="7">
-        <v>7978</v>
+        <v>13097</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>127</v>
+        <v>147</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>128</v>
+        <v>148</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>129</v>
+        <v>149</v>
       </c>
       <c r="M10" s="7">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="N10" s="7">
-        <v>16661</v>
+        <v>21900</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>132</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2555,49 +2952,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="D11" s="7">
-        <v>21696</v>
+        <v>6158</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>133</v>
+        <v>152</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>134</v>
+        <v>153</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>135</v>
+        <v>154</v>
       </c>
       <c r="H11" s="7">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="I11" s="7">
-        <v>13878</v>
+        <v>7102</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>136</v>
+        <v>155</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>137</v>
+        <v>156</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>138</v>
+        <v>157</v>
       </c>
       <c r="M11" s="7">
-        <v>52</v>
+        <v>19</v>
       </c>
       <c r="N11" s="7">
-        <v>35574</v>
+        <v>13260</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>139</v>
+        <v>158</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>140</v>
+        <v>63</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>141</v>
+        <v>159</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2606,10 +3003,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="D12" s="7">
-        <v>30379</v>
+        <v>14961</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -2621,10 +3018,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="I12" s="7">
-        <v>21856</v>
+        <v>20199</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -2636,10 +3033,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>76</v>
+        <v>49</v>
       </c>
       <c r="N12" s="7">
-        <v>52235</v>
+        <v>35160</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2653,55 +3050,55 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="D13" s="7">
-        <v>36277</v>
+        <v>18126</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>144</v>
+        <v>162</v>
       </c>
       <c r="H13" s="7">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="I13" s="7">
-        <v>30968</v>
+        <v>8766</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>145</v>
+        <v>163</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>147</v>
+        <v>165</v>
       </c>
       <c r="M13" s="7">
-        <v>98</v>
+        <v>40</v>
       </c>
       <c r="N13" s="7">
-        <v>67246</v>
+        <v>26891</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>148</v>
+        <v>166</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2710,49 +3107,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>88</v>
+        <v>7</v>
       </c>
       <c r="D14" s="7">
-        <v>62007</v>
+        <v>5325</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>151</v>
+        <v>169</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>152</v>
+        <v>170</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="H14" s="7">
-        <v>74</v>
+        <v>7</v>
       </c>
       <c r="I14" s="7">
-        <v>51274</v>
+        <v>4609</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>155</v>
+        <v>173</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="M14" s="7">
-        <v>162</v>
+        <v>14</v>
       </c>
       <c r="N14" s="7">
-        <v>113281</v>
+        <v>9935</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>158</v>
+        <v>176</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>159</v>
+        <v>177</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2761,55 +3158,216 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>34</v>
+      </c>
+      <c r="D15" s="7">
+        <v>23451</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
+        <v>20</v>
+      </c>
+      <c r="I15" s="7">
+        <v>13375</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M15" s="7">
+        <v>54</v>
+      </c>
+      <c r="N15" s="7">
+        <v>36826</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>88</v>
+      </c>
+      <c r="D16" s="7">
+        <v>62007</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="H16" s="7">
+        <v>74</v>
+      </c>
+      <c r="I16" s="7">
+        <v>51274</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="M16" s="7">
+        <v>162</v>
+      </c>
+      <c r="N16" s="7">
+        <v>113281</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="7">
+        <v>51</v>
+      </c>
+      <c r="D17" s="7">
+        <v>36277</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="H17" s="7">
+        <v>47</v>
+      </c>
+      <c r="I17" s="7">
+        <v>30968</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="M17" s="7">
+        <v>98</v>
+      </c>
+      <c r="N17" s="7">
+        <v>67246</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
         <v>139</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D18" s="7">
         <v>98284</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
         <v>121</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I18" s="7">
         <v>82242</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="J18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M18" s="7">
         <v>260</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N18" s="7">
         <v>180527</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>30</v>
+      <c r="O18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2822,8 +3380,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A89F80C6-B6EB-4219-ABC4-60AFD4CBF087}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{586E0E10-E8B3-430E-B041-EC7F6CD1C0C5}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2839,7 +3397,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>160</v>
+        <v>196</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2940,49 +3498,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D4" s="7">
-        <v>10705</v>
+        <v>5346</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>161</v>
+        <v>197</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>162</v>
+        <v>198</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>163</v>
+        <v>199</v>
       </c>
       <c r="H4" s="7">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="I4" s="7">
-        <v>11049</v>
+        <v>2111</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>164</v>
+        <v>200</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>165</v>
+        <v>201</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>166</v>
+        <v>202</v>
       </c>
       <c r="M4" s="7">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="N4" s="7">
-        <v>21754</v>
+        <v>7457</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>167</v>
+        <v>203</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>168</v>
+        <v>204</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>169</v>
+        <v>205</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2991,49 +3549,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D5" s="7">
-        <v>10543</v>
+        <v>7285</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>170</v>
+        <v>206</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>171</v>
+        <v>207</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>172</v>
+        <v>208</v>
       </c>
       <c r="H5" s="7">
         <v>12</v>
       </c>
       <c r="I5" s="7">
-        <v>6972</v>
+        <v>7571</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>173</v>
+        <v>209</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>174</v>
+        <v>210</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>175</v>
+        <v>211</v>
       </c>
       <c r="M5" s="7">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="N5" s="7">
-        <v>17516</v>
+        <v>14856</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>176</v>
+        <v>212</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>177</v>
+        <v>213</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>178</v>
+        <v>214</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3042,10 +3600,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="D6" s="7">
-        <v>21248</v>
+        <v>12631</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -3057,10 +3615,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I6" s="7">
-        <v>18021</v>
+        <v>9682</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3072,10 +3630,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="N6" s="7">
-        <v>39270</v>
+        <v>22313</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3095,49 +3653,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D7" s="7">
-        <v>7131</v>
+        <v>11255</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>179</v>
+        <v>215</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>180</v>
+        <v>216</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>181</v>
+        <v>217</v>
       </c>
       <c r="H7" s="7">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="I7" s="7">
-        <v>6060</v>
+        <v>11731</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>182</v>
+        <v>218</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>183</v>
+        <v>219</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>184</v>
+        <v>220</v>
       </c>
       <c r="M7" s="7">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="N7" s="7">
-        <v>13190</v>
+        <v>22985</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>185</v>
+        <v>221</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>186</v>
+        <v>222</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>187</v>
+        <v>223</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3146,49 +3704,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
+        <v>14</v>
+      </c>
+      <c r="D8" s="7">
+        <v>9814</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="H8" s="7">
         <v>11</v>
       </c>
-      <c r="D8" s="7">
-        <v>7371</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="H8" s="7">
-        <v>13</v>
-      </c>
       <c r="I8" s="7">
-        <v>8565</v>
+        <v>6785</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>191</v>
+        <v>227</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>192</v>
+        <v>228</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>193</v>
+        <v>229</v>
       </c>
       <c r="M8" s="7">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N8" s="7">
-        <v>15937</v>
+        <v>16600</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>194</v>
+        <v>230</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>195</v>
+        <v>231</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>196</v>
+        <v>232</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3197,10 +3755,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="D9" s="7">
-        <v>14502</v>
+        <v>21069</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3212,10 +3770,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="I9" s="7">
-        <v>14625</v>
+        <v>18516</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3227,10 +3785,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="N9" s="7">
-        <v>29127</v>
+        <v>39585</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3250,49 +3808,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D10" s="7">
-        <v>5182</v>
+        <v>3615</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>197</v>
+        <v>233</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>198</v>
+        <v>234</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>199</v>
+        <v>235</v>
       </c>
       <c r="H10" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I10" s="7">
-        <v>5822</v>
+        <v>5627</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>200</v>
+        <v>236</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>201</v>
+        <v>237</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>202</v>
+        <v>238</v>
       </c>
       <c r="M10" s="7">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="N10" s="7">
-        <v>11004</v>
+        <v>9242</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>203</v>
+        <v>239</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>204</v>
+        <v>240</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>205</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3301,49 +3859,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="D11" s="7">
-        <v>10514</v>
+        <v>2316</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>206</v>
+        <v>241</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>207</v>
+        <v>242</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>208</v>
+        <v>243</v>
       </c>
       <c r="H11" s="7">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="I11" s="7">
-        <v>8654</v>
+        <v>2752</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>209</v>
+        <v>244</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>210</v>
+        <v>245</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>211</v>
+        <v>246</v>
       </c>
       <c r="M11" s="7">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="N11" s="7">
-        <v>19169</v>
+        <v>5068</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>212</v>
+        <v>247</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>213</v>
+        <v>139</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>214</v>
+        <v>248</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3352,10 +3910,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="D12" s="7">
-        <v>15696</v>
+        <v>5931</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -3367,25 +3925,25 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
+        <v>12</v>
+      </c>
+      <c r="I12" s="7">
+        <v>8379</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M12" s="7">
         <v>20</v>
       </c>
-      <c r="I12" s="7">
-        <v>14476</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M12" s="7">
-        <v>41</v>
-      </c>
       <c r="N12" s="7">
-        <v>30173</v>
+        <v>14310</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -3399,55 +3957,55 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="D13" s="7">
-        <v>23018</v>
+        <v>8214</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>215</v>
+        <v>249</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>216</v>
+        <v>250</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>217</v>
+        <v>251</v>
       </c>
       <c r="H13" s="7">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="I13" s="7">
-        <v>22931</v>
+        <v>4723</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>218</v>
+        <v>252</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>219</v>
+        <v>253</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>220</v>
+        <v>254</v>
       </c>
       <c r="M13" s="7">
-        <v>69</v>
+        <v>17</v>
       </c>
       <c r="N13" s="7">
-        <v>45949</v>
+        <v>12936</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>221</v>
+        <v>255</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>222</v>
+        <v>256</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>223</v>
+        <v>257</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3456,49 +4014,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>41</v>
+        <v>5</v>
       </c>
       <c r="D14" s="7">
-        <v>28429</v>
+        <v>3602</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>224</v>
+        <v>258</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>225</v>
+        <v>259</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>226</v>
+        <v>260</v>
       </c>
       <c r="H14" s="7">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="I14" s="7">
-        <v>24192</v>
+        <v>5822</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>227</v>
+        <v>261</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>228</v>
+        <v>262</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>229</v>
+        <v>263</v>
       </c>
       <c r="M14" s="7">
-        <v>77</v>
+        <v>14</v>
       </c>
       <c r="N14" s="7">
-        <v>52621</v>
+        <v>9425</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>230</v>
+        <v>264</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>231</v>
+        <v>265</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>232</v>
+        <v>266</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3507,55 +4065,216 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>16</v>
+      </c>
+      <c r="D15" s="7">
+        <v>11816</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
+        <v>15</v>
+      </c>
+      <c r="I15" s="7">
+        <v>10545</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M15" s="7">
+        <v>31</v>
+      </c>
+      <c r="N15" s="7">
+        <v>22361</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>41</v>
+      </c>
+      <c r="D16" s="7">
+        <v>28429</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="H16" s="7">
+        <v>36</v>
+      </c>
+      <c r="I16" s="7">
+        <v>24192</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="M16" s="7">
+        <v>77</v>
+      </c>
+      <c r="N16" s="7">
+        <v>52621</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="7">
+        <v>33</v>
+      </c>
+      <c r="D17" s="7">
+        <v>23018</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="H17" s="7">
+        <v>36</v>
+      </c>
+      <c r="I17" s="7">
+        <v>22931</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="M17" s="7">
+        <v>69</v>
+      </c>
+      <c r="N17" s="7">
+        <v>45949</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
         <v>74</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D18" s="7">
         <v>51447</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
         <v>72</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I18" s="7">
         <v>47123</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="J18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M18" s="7">
         <v>146</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N18" s="7">
         <v>98570</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>30</v>
+      <c r="O18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3568,8 +4287,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB5DDC1A-678E-491A-9184-856CFCC4FAE7}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDCE8FEE-CD22-4614-8A34-95E528256325}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3585,7 +4304,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>233</v>
+        <v>285</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3686,49 +4405,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
+        <v>9</v>
+      </c>
+      <c r="D4" s="7">
+        <v>5011</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="H4" s="7">
+        <v>8</v>
+      </c>
+      <c r="I4" s="7">
+        <v>4637</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="M4" s="7">
         <v>17</v>
       </c>
-      <c r="D4" s="7">
-        <v>8991</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="H4" s="7">
-        <v>7</v>
-      </c>
-      <c r="I4" s="7">
-        <v>3938</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="M4" s="7">
-        <v>24</v>
-      </c>
       <c r="N4" s="7">
-        <v>12928</v>
+        <v>9648</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>239</v>
+        <v>292</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>240</v>
+        <v>293</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>241</v>
+        <v>294</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3737,49 +4456,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D5" s="7">
-        <v>10125</v>
+        <v>5430</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>155</v>
+        <v>295</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>242</v>
+        <v>296</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>243</v>
+        <v>297</v>
       </c>
       <c r="H5" s="7">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="I5" s="7">
-        <v>8134</v>
+        <v>3547</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>244</v>
+        <v>298</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>245</v>
+        <v>299</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>246</v>
+        <v>300</v>
       </c>
       <c r="M5" s="7">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="N5" s="7">
-        <v>18260</v>
+        <v>8977</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>247</v>
+        <v>301</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>248</v>
+        <v>302</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>249</v>
+        <v>303</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3788,10 +4507,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="D6" s="7">
-        <v>19116</v>
+        <v>10441</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -3803,10 +4522,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="I6" s="7">
-        <v>12072</v>
+        <v>8184</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3818,10 +4537,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="N6" s="7">
-        <v>31188</v>
+        <v>18625</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3841,49 +4560,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D7" s="7">
-        <v>4944</v>
+        <v>14179</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>250</v>
+        <v>304</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>251</v>
+        <v>305</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>252</v>
+        <v>291</v>
       </c>
       <c r="H7" s="7">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="I7" s="7">
-        <v>1657</v>
+        <v>7454</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>253</v>
+        <v>306</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>254</v>
+        <v>307</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>173</v>
+        <v>308</v>
       </c>
       <c r="M7" s="7">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="N7" s="7">
-        <v>6601</v>
+        <v>21632</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>255</v>
+        <v>309</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>256</v>
+        <v>310</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>257</v>
+        <v>311</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3892,49 +4611,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="D8" s="7">
-        <v>19565</v>
+        <v>7050</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>258</v>
+        <v>312</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>259</v>
+        <v>299</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>260</v>
+        <v>313</v>
       </c>
       <c r="H8" s="7">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="I8" s="7">
-        <v>10048</v>
+        <v>2047</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>261</v>
+        <v>314</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>164</v>
+        <v>315</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>262</v>
+        <v>316</v>
       </c>
       <c r="M8" s="7">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="N8" s="7">
-        <v>29613</v>
+        <v>9097</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>263</v>
+        <v>317</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>264</v>
+        <v>318</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>265</v>
+        <v>319</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3943,10 +4662,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D9" s="7">
-        <v>24509</v>
+        <v>21229</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3961,7 +4680,7 @@
         <v>17</v>
       </c>
       <c r="I9" s="7">
-        <v>11705</v>
+        <v>9501</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3973,10 +4692,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="N9" s="7">
-        <v>36214</v>
+        <v>30729</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3996,49 +4715,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D10" s="7">
-        <v>11093</v>
+        <v>16646</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>266</v>
+        <v>320</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>268</v>
+        <v>321</v>
       </c>
       <c r="H10" s="7">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="I10" s="7">
-        <v>6891</v>
+        <v>14199</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>269</v>
+        <v>322</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>270</v>
+        <v>323</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>271</v>
+        <v>324</v>
       </c>
       <c r="M10" s="7">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="N10" s="7">
-        <v>17983</v>
+        <v>30845</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>11</v>
+        <v>325</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>272</v>
+        <v>326</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>273</v>
+        <v>327</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4047,49 +4766,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="D11" s="7">
-        <v>34833</v>
+        <v>5225</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>274</v>
+        <v>328</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>275</v>
+        <v>329</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>276</v>
+        <v>250</v>
       </c>
       <c r="H11" s="7">
-        <v>41</v>
+        <v>3</v>
       </c>
       <c r="I11" s="7">
-        <v>30208</v>
+        <v>2589</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>277</v>
+        <v>330</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>278</v>
+        <v>331</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>279</v>
+        <v>332</v>
       </c>
       <c r="M11" s="7">
-        <v>76</v>
+        <v>10</v>
       </c>
       <c r="N11" s="7">
-        <v>65042</v>
+        <v>7814</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>21</v>
+        <v>333</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>280</v>
+        <v>334</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>281</v>
+        <v>335</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4098,10 +4817,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="D12" s="7">
-        <v>45926</v>
+        <v>21871</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -4113,10 +4832,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="I12" s="7">
-        <v>37099</v>
+        <v>16788</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4128,10 +4847,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>100</v>
+        <v>49</v>
       </c>
       <c r="N12" s="7">
-        <v>83025</v>
+        <v>38659</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4145,55 +4864,55 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="D13" s="7">
-        <v>25027</v>
+        <v>28688</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>282</v>
+        <v>336</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>283</v>
+        <v>337</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>284</v>
+        <v>338</v>
       </c>
       <c r="H13" s="7">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="I13" s="7">
-        <v>12485</v>
+        <v>22102</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>285</v>
+        <v>339</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>286</v>
+        <v>340</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>287</v>
+        <v>341</v>
       </c>
       <c r="M13" s="7">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N13" s="7">
-        <v>37512</v>
+        <v>50789</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>288</v>
+        <v>342</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>289</v>
+        <v>343</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>290</v>
+        <v>344</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4202,49 +4921,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="D14" s="7">
-        <v>64524</v>
+        <v>7323</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>291</v>
+        <v>345</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>292</v>
+        <v>346</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>293</v>
+        <v>347</v>
       </c>
       <c r="H14" s="7">
-        <v>71</v>
+        <v>6</v>
       </c>
       <c r="I14" s="7">
-        <v>48391</v>
+        <v>4302</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>294</v>
+        <v>348</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>295</v>
+        <v>349</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>296</v>
+        <v>350</v>
       </c>
       <c r="M14" s="7">
-        <v>151</v>
+        <v>16</v>
       </c>
       <c r="N14" s="7">
-        <v>112916</v>
+        <v>11625</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>297</v>
+        <v>351</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>298</v>
+        <v>352</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>299</v>
+        <v>353</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4253,55 +4972,216 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>37</v>
+      </c>
+      <c r="D15" s="7">
+        <v>36011</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
+        <v>36</v>
+      </c>
+      <c r="I15" s="7">
+        <v>26404</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M15" s="7">
+        <v>73</v>
+      </c>
+      <c r="N15" s="7">
+        <v>62414</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>80</v>
+      </c>
+      <c r="D16" s="7">
+        <v>64524</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="H16" s="7">
+        <v>71</v>
+      </c>
+      <c r="I16" s="7">
+        <v>48391</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="M16" s="7">
+        <v>151</v>
+      </c>
+      <c r="N16" s="7">
+        <v>112916</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="7">
+        <v>40</v>
+      </c>
+      <c r="D17" s="7">
+        <v>25027</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="H17" s="7">
+        <v>18</v>
+      </c>
+      <c r="I17" s="7">
+        <v>12485</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="M17" s="7">
+        <v>58</v>
+      </c>
+      <c r="N17" s="7">
+        <v>37512</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
         <v>120</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D18" s="7">
         <v>89551</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
         <v>89</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I18" s="7">
         <v>60876</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="J18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M18" s="7">
         <v>209</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N18" s="7">
         <v>150428</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>30</v>
+      <c r="O18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>

--- a/data/trans_orig/IP09B02-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP09B02-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{57BB5878-0489-4FEA-955E-90A81D4B8534}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B9FCE766-3CC1-476B-87CA-D1B3020C8CA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C8DA5966-7FB1-4DC3-993B-44AA35712559}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B7B77394-F70B-4EAE-AC9D-619559B9AB54}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="372">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="378">
   <si>
     <t>Menores según afecte para realizar actividades com pasear, hacer deporte,... dicha enfermedad, dolencia.. en 2007 (Tasa respuesta: 9,7%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>81,61%</t>
   </si>
   <si>
-    <t>58,18%</t>
-  </si>
-  <si>
-    <t>95,42%</t>
+    <t>62,95%</t>
+  </si>
+  <si>
+    <t>95,43%</t>
   </si>
   <si>
     <t>49,27%</t>
   </si>
   <si>
-    <t>23,82%</t>
-  </si>
-  <si>
-    <t>74,67%</t>
+    <t>22,39%</t>
+  </si>
+  <si>
+    <t>79,19%</t>
   </si>
   <si>
     <t>68,77%</t>
   </si>
   <si>
-    <t>52,43%</t>
-  </si>
-  <si>
-    <t>83,54%</t>
+    <t>51,38%</t>
+  </si>
+  <si>
+    <t>82,61%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>18,39%</t>
   </si>
   <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>41,82%</t>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>37,05%</t>
   </si>
   <si>
     <t>50,73%</t>
   </si>
   <si>
-    <t>25,33%</t>
-  </si>
-  <si>
-    <t>76,18%</t>
+    <t>20,81%</t>
+  </si>
+  <si>
+    <t>77,61%</t>
   </si>
   <si>
     <t>31,23%</t>
   </si>
   <si>
-    <t>16,46%</t>
-  </si>
-  <si>
-    <t>47,57%</t>
+    <t>17,39%</t>
+  </si>
+  <si>
+    <t>48,62%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,55 +140,55 @@
     <t>75,37%</t>
   </si>
   <si>
-    <t>61,98%</t>
-  </si>
-  <si>
-    <t>86,63%</t>
+    <t>61,45%</t>
+  </si>
+  <si>
+    <t>85,0%</t>
   </si>
   <si>
     <t>75,58%</t>
   </si>
   <si>
-    <t>58,06%</t>
-  </si>
-  <si>
-    <t>88,5%</t>
+    <t>58,5%</t>
+  </si>
+  <si>
+    <t>87,36%</t>
   </si>
   <si>
     <t>75,46%</t>
   </si>
   <si>
-    <t>65,31%</t>
-  </si>
-  <si>
-    <t>83,72%</t>
+    <t>65,43%</t>
+  </si>
+  <si>
+    <t>83,79%</t>
   </si>
   <si>
     <t>24,63%</t>
   </si>
   <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>38,02%</t>
+    <t>15,0%</t>
+  </si>
+  <si>
+    <t>38,55%</t>
   </si>
   <si>
     <t>24,42%</t>
   </si>
   <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>41,94%</t>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>41,5%</t>
   </si>
   <si>
     <t>24,54%</t>
   </si>
   <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>34,69%</t>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>34,57%</t>
   </si>
   <si>
     <t>8-11</t>
@@ -197,7 +197,7 @@
     <t>89,91%</t>
   </si>
   <si>
-    <t>70,41%</t>
+    <t>69,03%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -206,19 +206,19 @@
     <t>75,35%</t>
   </si>
   <si>
-    <t>52,65%</t>
-  </si>
-  <si>
-    <t>90,67%</t>
+    <t>49,91%</t>
+  </si>
+  <si>
+    <t>90,5%</t>
   </si>
   <si>
     <t>82,97%</t>
   </si>
   <si>
-    <t>69,44%</t>
-  </si>
-  <si>
-    <t>93,14%</t>
+    <t>70,07%</t>
+  </si>
+  <si>
+    <t>92,96%</t>
   </si>
   <si>
     <t>10,09%</t>
@@ -227,25 +227,25 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>29,59%</t>
+    <t>30,97%</t>
   </si>
   <si>
     <t>24,65%</t>
   </si>
   <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>47,35%</t>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>50,09%</t>
   </si>
   <si>
     <t>17,03%</t>
   </si>
   <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>30,56%</t>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>29,93%</t>
   </si>
   <si>
     <t>12-15</t>
@@ -254,109 +254,109 @@
     <t>88,62%</t>
   </si>
   <si>
-    <t>73,11%</t>
-  </si>
-  <si>
-    <t>96,4%</t>
+    <t>73,07%</t>
+  </si>
+  <si>
+    <t>96,39%</t>
   </si>
   <si>
     <t>74,07%</t>
   </si>
   <si>
-    <t>41,76%</t>
-  </si>
-  <si>
-    <t>92,06%</t>
+    <t>41,56%</t>
+  </si>
+  <si>
+    <t>92,11%</t>
   </si>
   <si>
     <t>84,16%</t>
   </si>
   <si>
-    <t>70,57%</t>
-  </si>
-  <si>
-    <t>94,34%</t>
+    <t>69,69%</t>
+  </si>
+  <si>
+    <t>94,3%</t>
   </si>
   <si>
     <t>11,38%</t>
   </si>
   <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>26,89%</t>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>26,93%</t>
   </si>
   <si>
     <t>25,93%</t>
   </si>
   <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>58,24%</t>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>58,44%</t>
   </si>
   <si>
     <t>15,84%</t>
   </si>
   <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>29,43%</t>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>30,31%</t>
   </si>
   <si>
     <t>81,98%</t>
   </si>
   <si>
-    <t>74,36%</t>
-  </si>
-  <si>
-    <t>87,96%</t>
+    <t>73,9%</t>
+  </si>
+  <si>
+    <t>88,28%</t>
   </si>
   <si>
     <t>70,89%</t>
   </si>
   <si>
-    <t>59,88%</t>
-  </si>
-  <si>
-    <t>79,74%</t>
+    <t>60,24%</t>
+  </si>
+  <si>
+    <t>80,3%</t>
   </si>
   <si>
     <t>77,5%</t>
   </si>
   <si>
-    <t>71,36%</t>
-  </si>
-  <si>
-    <t>83,15%</t>
+    <t>71,75%</t>
+  </si>
+  <si>
+    <t>83,11%</t>
   </si>
   <si>
     <t>18,02%</t>
   </si>
   <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>25,64%</t>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>26,1%</t>
   </si>
   <si>
     <t>29,11%</t>
   </si>
   <si>
-    <t>20,26%</t>
-  </si>
-  <si>
-    <t>40,12%</t>
+    <t>19,7%</t>
+  </si>
+  <si>
+    <t>39,76%</t>
   </si>
   <si>
     <t>22,5%</t>
   </si>
   <si>
-    <t>16,85%</t>
-  </si>
-  <si>
-    <t>28,64%</t>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>28,25%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -368,532 +368,538 @@
     <t>39,74%</t>
   </si>
   <si>
-    <t>23,19%</t>
-  </si>
-  <si>
-    <t>56,47%</t>
+    <t>24,39%</t>
+  </si>
+  <si>
+    <t>58,13%</t>
   </si>
   <si>
     <t>43,1%</t>
   </si>
   <si>
-    <t>25,73%</t>
-  </si>
-  <si>
-    <t>63,18%</t>
+    <t>25,52%</t>
+  </si>
+  <si>
+    <t>60,63%</t>
   </si>
   <si>
     <t>41,35%</t>
   </si>
   <si>
-    <t>28,89%</t>
-  </si>
-  <si>
-    <t>54,82%</t>
+    <t>30,32%</t>
+  </si>
+  <si>
+    <t>54,96%</t>
   </si>
   <si>
     <t>60,26%</t>
   </si>
   <si>
-    <t>43,53%</t>
-  </si>
-  <si>
-    <t>76,81%</t>
+    <t>41,87%</t>
+  </si>
+  <si>
+    <t>75,61%</t>
   </si>
   <si>
     <t>56,9%</t>
   </si>
   <si>
-    <t>36,82%</t>
-  </si>
-  <si>
-    <t>74,27%</t>
+    <t>39,37%</t>
+  </si>
+  <si>
+    <t>74,48%</t>
   </si>
   <si>
     <t>58,65%</t>
   </si>
   <si>
-    <t>45,18%</t>
-  </si>
-  <si>
-    <t>71,11%</t>
+    <t>45,04%</t>
+  </si>
+  <si>
+    <t>69,68%</t>
   </si>
   <si>
     <t>69,6%</t>
   </si>
   <si>
-    <t>55,86%</t>
-  </si>
-  <si>
-    <t>80,96%</t>
+    <t>56,26%</t>
+  </si>
+  <si>
+    <t>81,54%</t>
   </si>
   <si>
     <t>72,92%</t>
   </si>
   <si>
-    <t>59,4%</t>
-  </si>
-  <si>
-    <t>85,52%</t>
+    <t>56,12%</t>
+  </si>
+  <si>
+    <t>83,56%</t>
   </si>
   <si>
     <t>71,02%</t>
   </si>
   <si>
-    <t>60,59%</t>
-  </si>
-  <si>
-    <t>79,41%</t>
+    <t>60,94%</t>
+  </si>
+  <si>
+    <t>79,65%</t>
   </si>
   <si>
     <t>30,4%</t>
   </si>
   <si>
-    <t>19,04%</t>
-  </si>
-  <si>
-    <t>44,14%</t>
+    <t>18,46%</t>
+  </si>
+  <si>
+    <t>43,74%</t>
   </si>
   <si>
     <t>27,08%</t>
   </si>
   <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>40,6%</t>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>43,88%</t>
   </si>
   <si>
     <t>28,98%</t>
   </si>
   <si>
-    <t>20,59%</t>
-  </si>
-  <si>
-    <t>39,41%</t>
+    <t>20,35%</t>
+  </si>
+  <si>
+    <t>39,06%</t>
   </si>
   <si>
     <t>58,84%</t>
   </si>
   <si>
-    <t>38,19%</t>
-  </si>
-  <si>
-    <t>81,82%</t>
+    <t>37,07%</t>
+  </si>
+  <si>
+    <t>78,71%</t>
   </si>
   <si>
     <t>64,84%</t>
   </si>
   <si>
-    <t>46,38%</t>
-  </si>
-  <si>
-    <t>80,84%</t>
+    <t>45,73%</t>
+  </si>
+  <si>
+    <t>82,29%</t>
   </si>
   <si>
     <t>62,29%</t>
   </si>
   <si>
-    <t>49,51%</t>
+    <t>48,61%</t>
+  </si>
+  <si>
+    <t>74,95%</t>
   </si>
   <si>
     <t>41,16%</t>
   </si>
   <si>
-    <t>18,18%</t>
-  </si>
-  <si>
-    <t>61,81%</t>
+    <t>21,29%</t>
+  </si>
+  <si>
+    <t>62,93%</t>
   </si>
   <si>
     <t>35,16%</t>
   </si>
   <si>
-    <t>19,16%</t>
-  </si>
-  <si>
-    <t>53,62%</t>
+    <t>17,71%</t>
+  </si>
+  <si>
+    <t>54,27%</t>
   </si>
   <si>
     <t>37,71%</t>
   </si>
   <si>
-    <t>50,49%</t>
+    <t>25,05%</t>
+  </si>
+  <si>
+    <t>51,39%</t>
   </si>
   <si>
     <t>77,29%</t>
   </si>
   <si>
-    <t>60,19%</t>
-  </si>
-  <si>
-    <t>89,85%</t>
+    <t>60,66%</t>
+  </si>
+  <si>
+    <t>89,27%</t>
   </si>
   <si>
     <t>65,54%</t>
   </si>
   <si>
-    <t>41,39%</t>
-  </si>
-  <si>
-    <t>84,42%</t>
+    <t>44,28%</t>
+  </si>
+  <si>
+    <t>85,09%</t>
   </si>
   <si>
     <t>73,02%</t>
   </si>
   <si>
-    <t>59,97%</t>
-  </si>
-  <si>
-    <t>83,34%</t>
+    <t>58,99%</t>
+  </si>
+  <si>
+    <t>83,75%</t>
   </si>
   <si>
     <t>22,71%</t>
   </si>
   <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>39,81%</t>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>39,34%</t>
   </si>
   <si>
     <t>34,46%</t>
   </si>
   <si>
-    <t>15,58%</t>
-  </si>
-  <si>
-    <t>58,61%</t>
+    <t>14,91%</t>
+  </si>
+  <si>
+    <t>55,72%</t>
   </si>
   <si>
     <t>26,98%</t>
   </si>
   <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>40,03%</t>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>41,01%</t>
   </si>
   <si>
     <t>63,09%</t>
   </si>
   <si>
-    <t>54,32%</t>
-  </si>
-  <si>
-    <t>70,86%</t>
+    <t>54,65%</t>
+  </si>
+  <si>
+    <t>70,96%</t>
   </si>
   <si>
     <t>62,34%</t>
   </si>
   <si>
-    <t>54,08%</t>
-  </si>
-  <si>
-    <t>70,67%</t>
+    <t>52,31%</t>
+  </si>
+  <si>
+    <t>70,35%</t>
   </si>
   <si>
     <t>62,75%</t>
   </si>
   <si>
-    <t>56,77%</t>
-  </si>
-  <si>
-    <t>68,45%</t>
+    <t>56,67%</t>
+  </si>
+  <si>
+    <t>68,3%</t>
   </si>
   <si>
     <t>36,91%</t>
   </si>
   <si>
-    <t>29,14%</t>
-  </si>
-  <si>
-    <t>45,68%</t>
+    <t>29,04%</t>
+  </si>
+  <si>
+    <t>45,35%</t>
   </si>
   <si>
     <t>37,66%</t>
   </si>
   <si>
-    <t>29,33%</t>
-  </si>
-  <si>
-    <t>45,92%</t>
+    <t>29,65%</t>
+  </si>
+  <si>
+    <t>47,69%</t>
   </si>
   <si>
     <t>37,25%</t>
   </si>
   <si>
-    <t>31,55%</t>
-  </si>
-  <si>
-    <t>43,23%</t>
-  </si>
-  <si>
-    <t>Menores según afecte para realizar actividades com pasear, hacer deporte,... dicha enfermedad, dolencia.. en 2015 (Tasa respuesta: 6,87%)</t>
+    <t>31,7%</t>
+  </si>
+  <si>
+    <t>43,33%</t>
+  </si>
+  <si>
+    <t>Menores según afecte para realizar actividades com pasear, hacer deporte,... dicha enfermedad, dolencia.. en 2016 (Tasa respuesta: 6,87%)</t>
   </si>
   <si>
     <t>42,33%</t>
   </si>
   <si>
-    <t>20,36%</t>
-  </si>
-  <si>
-    <t>63,46%</t>
+    <t>22,28%</t>
+  </si>
+  <si>
+    <t>66,54%</t>
   </si>
   <si>
     <t>21,8%</t>
   </si>
   <si>
-    <t>5,57%</t>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>47,05%</t>
+  </si>
+  <si>
+    <t>33,42%</t>
+  </si>
+  <si>
+    <t>18,34%</t>
+  </si>
+  <si>
+    <t>49,4%</t>
+  </si>
+  <si>
+    <t>57,67%</t>
+  </si>
+  <si>
+    <t>33,46%</t>
+  </si>
+  <si>
+    <t>77,72%</t>
+  </si>
+  <si>
+    <t>78,2%</t>
+  </si>
+  <si>
+    <t>52,95%</t>
+  </si>
+  <si>
+    <t>94,28%</t>
+  </si>
+  <si>
+    <t>66,58%</t>
+  </si>
+  <si>
+    <t>50,6%</t>
+  </si>
+  <si>
+    <t>81,66%</t>
+  </si>
+  <si>
+    <t>53,42%</t>
+  </si>
+  <si>
+    <t>34,7%</t>
+  </si>
+  <si>
+    <t>70,63%</t>
+  </si>
+  <si>
+    <t>63,36%</t>
+  </si>
+  <si>
+    <t>43,12%</t>
+  </si>
+  <si>
+    <t>80,06%</t>
+  </si>
+  <si>
+    <t>58,07%</t>
+  </si>
+  <si>
+    <t>44,29%</t>
+  </si>
+  <si>
+    <t>70,78%</t>
+  </si>
+  <si>
+    <t>46,58%</t>
+  </si>
+  <si>
+    <t>29,37%</t>
+  </si>
+  <si>
+    <t>65,3%</t>
+  </si>
+  <si>
+    <t>36,64%</t>
+  </si>
+  <si>
+    <t>19,94%</t>
+  </si>
+  <si>
+    <t>56,88%</t>
+  </si>
+  <si>
+    <t>41,93%</t>
+  </si>
+  <si>
+    <t>29,22%</t>
+  </si>
+  <si>
+    <t>55,71%</t>
+  </si>
+  <si>
+    <t>60,95%</t>
+  </si>
+  <si>
+    <t>22,9%</t>
+  </si>
+  <si>
+    <t>67,16%</t>
+  </si>
+  <si>
+    <t>38,65%</t>
+  </si>
+  <si>
+    <t>88,88%</t>
+  </si>
+  <si>
+    <t>64,58%</t>
+  </si>
+  <si>
+    <t>41,72%</t>
+  </si>
+  <si>
+    <t>85,35%</t>
+  </si>
+  <si>
+    <t>39,05%</t>
+  </si>
+  <si>
+    <t>77,1%</t>
+  </si>
+  <si>
+    <t>32,84%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>61,35%</t>
+  </si>
+  <si>
+    <t>35,42%</t>
+  </si>
+  <si>
+    <t>14,65%</t>
+  </si>
+  <si>
+    <t>58,28%</t>
+  </si>
+  <si>
+    <t>69,51%</t>
   </si>
   <si>
     <t>45,24%</t>
   </si>
   <si>
-    <t>33,42%</t>
-  </si>
-  <si>
-    <t>18,38%</t>
-  </si>
-  <si>
-    <t>50,79%</t>
-  </si>
-  <si>
-    <t>57,67%</t>
-  </si>
-  <si>
-    <t>36,54%</t>
-  </si>
-  <si>
-    <t>79,64%</t>
-  </si>
-  <si>
-    <t>78,2%</t>
+    <t>93,65%</t>
+  </si>
+  <si>
+    <t>44,79%</t>
+  </si>
+  <si>
+    <t>21,51%</t>
+  </si>
+  <si>
+    <t>70,2%</t>
+  </si>
+  <si>
+    <t>57,85%</t>
+  </si>
+  <si>
+    <t>39,95%</t>
+  </si>
+  <si>
+    <t>73,42%</t>
+  </si>
+  <si>
+    <t>30,49%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
   </si>
   <si>
     <t>54,76%</t>
   </si>
   <si>
-    <t>94,43%</t>
-  </si>
-  <si>
-    <t>66,58%</t>
-  </si>
-  <si>
-    <t>49,21%</t>
-  </si>
-  <si>
-    <t>81,62%</t>
-  </si>
-  <si>
-    <t>53,42%</t>
-  </si>
-  <si>
-    <t>35,88%</t>
-  </si>
-  <si>
-    <t>71,81%</t>
-  </si>
-  <si>
-    <t>63,36%</t>
-  </si>
-  <si>
-    <t>42,62%</t>
-  </si>
-  <si>
-    <t>79,71%</t>
-  </si>
-  <si>
-    <t>58,07%</t>
-  </si>
-  <si>
-    <t>46,31%</t>
-  </si>
-  <si>
-    <t>70,21%</t>
-  </si>
-  <si>
-    <t>46,58%</t>
-  </si>
-  <si>
-    <t>28,19%</t>
-  </si>
-  <si>
-    <t>64,12%</t>
-  </si>
-  <si>
-    <t>36,64%</t>
-  </si>
-  <si>
-    <t>20,29%</t>
-  </si>
-  <si>
-    <t>57,38%</t>
-  </si>
-  <si>
-    <t>41,93%</t>
-  </si>
-  <si>
-    <t>29,79%</t>
-  </si>
-  <si>
-    <t>53,69%</t>
-  </si>
-  <si>
-    <t>60,95%</t>
-  </si>
-  <si>
-    <t>23,03%</t>
-  </si>
-  <si>
-    <t>87,81%</t>
-  </si>
-  <si>
-    <t>67,16%</t>
-  </si>
-  <si>
-    <t>31,53%</t>
-  </si>
-  <si>
-    <t>92,44%</t>
-  </si>
-  <si>
-    <t>64,58%</t>
-  </si>
-  <si>
-    <t>41,84%</t>
-  </si>
-  <si>
-    <t>39,05%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>76,97%</t>
-  </si>
-  <si>
-    <t>32,84%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>68,47%</t>
-  </si>
-  <si>
-    <t>35,42%</t>
-  </si>
-  <si>
-    <t>58,16%</t>
-  </si>
-  <si>
-    <t>69,51%</t>
-  </si>
-  <si>
-    <t>43,4%</t>
-  </si>
-  <si>
-    <t>89,01%</t>
-  </si>
-  <si>
-    <t>44,79%</t>
-  </si>
-  <si>
-    <t>20,79%</t>
-  </si>
-  <si>
-    <t>69,98%</t>
-  </si>
-  <si>
-    <t>57,85%</t>
-  </si>
-  <si>
-    <t>39,78%</t>
-  </si>
-  <si>
-    <t>77,32%</t>
-  </si>
-  <si>
-    <t>30,49%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>56,6%</t>
-  </si>
-  <si>
     <t>55,21%</t>
   </si>
   <si>
-    <t>30,02%</t>
-  </si>
-  <si>
-    <t>79,21%</t>
+    <t>29,8%</t>
+  </si>
+  <si>
+    <t>78,49%</t>
   </si>
   <si>
     <t>42,15%</t>
   </si>
   <si>
-    <t>22,68%</t>
-  </si>
-  <si>
-    <t>60,22%</t>
+    <t>26,58%</t>
+  </si>
+  <si>
+    <t>60,05%</t>
   </si>
   <si>
     <t>55,26%</t>
   </si>
   <si>
-    <t>45,06%</t>
-  </si>
-  <si>
-    <t>66,11%</t>
+    <t>44,25%</t>
+  </si>
+  <si>
+    <t>65,7%</t>
   </si>
   <si>
     <t>51,34%</t>
   </si>
   <si>
-    <t>39,44%</t>
-  </si>
-  <si>
-    <t>63,5%</t>
+    <t>40,2%</t>
+  </si>
+  <si>
+    <t>63,4%</t>
   </si>
   <si>
     <t>53,38%</t>
   </si>
   <si>
-    <t>45,02%</t>
-  </si>
-  <si>
-    <t>61,92%</t>
+    <t>45,05%</t>
+  </si>
+  <si>
+    <t>61,91%</t>
   </si>
   <si>
     <t>44,74%</t>
   </si>
   <si>
-    <t>33,89%</t>
-  </si>
-  <si>
-    <t>54,94%</t>
+    <t>34,3%</t>
+  </si>
+  <si>
+    <t>55,75%</t>
   </si>
   <si>
     <t>48,66%</t>
   </si>
   <si>
-    <t>36,5%</t>
-  </si>
-  <si>
-    <t>60,56%</t>
+    <t>36,6%</t>
+  </si>
+  <si>
+    <t>59,8%</t>
   </si>
   <si>
     <t>46,62%</t>
   </si>
   <si>
-    <t>38,08%</t>
-  </si>
-  <si>
-    <t>54,98%</t>
+    <t>38,09%</t>
+  </si>
+  <si>
+    <t>54,95%</t>
   </si>
   <si>
     <t>Menores según afecte para realizar actividades com pasear, hacer deporte,... dicha enfermedad, dolencia.. en 2023 (Tasa respuesta: 10,89%)</t>
@@ -902,259 +908,271 @@
     <t>48,0%</t>
   </si>
   <si>
-    <t>27,15%</t>
-  </si>
-  <si>
-    <t>72,23%</t>
+    <t>25,6%</t>
+  </si>
+  <si>
+    <t>73,22%</t>
   </si>
   <si>
     <t>56,66%</t>
   </si>
   <si>
-    <t>27,98%</t>
-  </si>
-  <si>
-    <t>81,14%</t>
+    <t>29,98%</t>
+  </si>
+  <si>
+    <t>82,59%</t>
   </si>
   <si>
     <t>51,8%</t>
   </si>
   <si>
-    <t>34,25%</t>
-  </si>
-  <si>
-    <t>68,36%</t>
+    <t>34,51%</t>
+  </si>
+  <si>
+    <t>68,99%</t>
   </si>
   <si>
     <t>52,0%</t>
   </si>
   <si>
-    <t>27,77%</t>
-  </si>
-  <si>
-    <t>72,85%</t>
+    <t>26,78%</t>
+  </si>
+  <si>
+    <t>74,4%</t>
   </si>
   <si>
     <t>43,34%</t>
   </si>
   <si>
-    <t>18,86%</t>
-  </si>
-  <si>
-    <t>72,02%</t>
+    <t>17,41%</t>
+  </si>
+  <si>
+    <t>70,02%</t>
   </si>
   <si>
     <t>48,2%</t>
   </si>
   <si>
-    <t>31,64%</t>
-  </si>
-  <si>
-    <t>65,75%</t>
+    <t>31,01%</t>
+  </si>
+  <si>
+    <t>65,49%</t>
   </si>
   <si>
     <t>66,79%</t>
   </si>
   <si>
-    <t>50,98%</t>
+    <t>48,55%</t>
+  </si>
+  <si>
+    <t>81,7%</t>
   </si>
   <si>
     <t>78,45%</t>
   </si>
   <si>
-    <t>43,6%</t>
-  </si>
-  <si>
-    <t>95,27%</t>
+    <t>50,31%</t>
+  </si>
+  <si>
+    <t>95,75%</t>
   </si>
   <si>
     <t>70,4%</t>
   </si>
   <si>
-    <t>55,16%</t>
-  </si>
-  <si>
-    <t>81,13%</t>
+    <t>55,76%</t>
+  </si>
+  <si>
+    <t>81,4%</t>
   </si>
   <si>
     <t>33,21%</t>
   </si>
   <si>
-    <t>49,02%</t>
+    <t>18,3%</t>
+  </si>
+  <si>
+    <t>51,45%</t>
   </si>
   <si>
     <t>21,55%</t>
   </si>
   <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>56,4%</t>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>49,69%</t>
   </si>
   <si>
     <t>29,6%</t>
   </si>
   <si>
-    <t>18,87%</t>
-  </si>
-  <si>
-    <t>44,84%</t>
+    <t>18,6%</t>
+  </si>
+  <si>
+    <t>44,24%</t>
   </si>
   <si>
     <t>76,11%</t>
   </si>
   <si>
-    <t>89,23%</t>
+    <t>57,93%</t>
+  </si>
+  <si>
+    <t>90,27%</t>
   </si>
   <si>
     <t>84,58%</t>
   </si>
   <si>
-    <t>60,62%</t>
-  </si>
-  <si>
-    <t>95,36%</t>
+    <t>59,91%</t>
+  </si>
+  <si>
+    <t>95,19%</t>
   </si>
   <si>
     <t>79,79%</t>
   </si>
   <si>
-    <t>65,41%</t>
-  </si>
-  <si>
-    <t>89,53%</t>
+    <t>65,92%</t>
+  </si>
+  <si>
+    <t>89,55%</t>
   </si>
   <si>
     <t>23,89%</t>
   </si>
   <si>
-    <t>10,77%</t>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>42,07%</t>
   </si>
   <si>
     <t>15,42%</t>
   </si>
   <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>39,38%</t>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>40,09%</t>
   </si>
   <si>
     <t>20,21%</t>
   </si>
   <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>34,59%</t>
+    <t>10,45%</t>
+  </si>
+  <si>
+    <t>34,08%</t>
   </si>
   <si>
     <t>79,66%</t>
   </si>
   <si>
-    <t>63,47%</t>
-  </si>
-  <si>
-    <t>91,54%</t>
+    <t>62,99%</t>
+  </si>
+  <si>
+    <t>91,68%</t>
   </si>
   <si>
     <t>83,71%</t>
   </si>
   <si>
-    <t>66,89%</t>
-  </si>
-  <si>
-    <t>93,03%</t>
+    <t>66,57%</t>
+  </si>
+  <si>
+    <t>93,11%</t>
   </si>
   <si>
     <t>81,37%</t>
   </si>
   <si>
-    <t>70,13%</t>
-  </si>
-  <si>
-    <t>90,11%</t>
+    <t>70,36%</t>
+  </si>
+  <si>
+    <t>89,48%</t>
   </si>
   <si>
     <t>20,34%</t>
   </si>
   <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>36,53%</t>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>37,01%</t>
   </si>
   <si>
     <t>16,29%</t>
   </si>
   <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>33,11%</t>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>33,43%</t>
   </si>
   <si>
     <t>18,63%</t>
   </si>
   <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>29,87%</t>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>29,64%</t>
   </si>
   <si>
     <t>72,05%</t>
   </si>
   <si>
-    <t>63,41%</t>
-  </si>
-  <si>
-    <t>80,24%</t>
+    <t>61,88%</t>
+  </si>
+  <si>
+    <t>80,32%</t>
   </si>
   <si>
     <t>79,49%</t>
   </si>
   <si>
-    <t>69,28%</t>
-  </si>
-  <si>
-    <t>87,36%</t>
+    <t>69,34%</t>
+  </si>
+  <si>
+    <t>87,56%</t>
   </si>
   <si>
     <t>75,06%</t>
   </si>
   <si>
-    <t>69,06%</t>
-  </si>
-  <si>
-    <t>81,3%</t>
+    <t>68,69%</t>
+  </si>
+  <si>
+    <t>80,87%</t>
   </si>
   <si>
     <t>27,95%</t>
   </si>
   <si>
-    <t>19,76%</t>
-  </si>
-  <si>
-    <t>36,59%</t>
+    <t>19,68%</t>
+  </si>
+  <si>
+    <t>38,12%</t>
   </si>
   <si>
     <t>20,51%</t>
   </si>
   <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>30,72%</t>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>30,66%</t>
   </si>
   <si>
     <t>24,94%</t>
   </si>
   <si>
-    <t>18,7%</t>
-  </si>
-  <si>
-    <t>30,94%</t>
+    <t>19,13%</t>
+  </si>
+  <si>
+    <t>31,31%</t>
   </si>
 </sst>
 </file>
@@ -1566,7 +1584,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB1658C6-2C72-4531-BA3A-DB342FAFB4F6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F9E2B98-4A86-425F-8D7F-F5A7F38935BB}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2473,7 +2491,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A285FD8-7925-4062-8C65-E08030CBC06D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F6DE455-B95F-4571-8968-F7E9C6B802C7}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2943,7 +2961,7 @@
         <v>151</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>54</v>
+        <v>152</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2958,13 +2976,13 @@
         <v>6158</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H11" s="7">
         <v>10</v>
@@ -2973,13 +2991,13 @@
         <v>7102</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M11" s="7">
         <v>19</v>
@@ -2988,13 +3006,13 @@
         <v>13260</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>63</v>
+        <v>160</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3062,13 +3080,13 @@
         <v>18126</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="H13" s="7">
         <v>13</v>
@@ -3077,13 +3095,13 @@
         <v>8766</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="M13" s="7">
         <v>40</v>
@@ -3092,13 +3110,13 @@
         <v>26891</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3113,13 +3131,13 @@
         <v>5325</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="H14" s="7">
         <v>7</v>
@@ -3128,13 +3146,13 @@
         <v>4609</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="M14" s="7">
         <v>14</v>
@@ -3143,13 +3161,13 @@
         <v>9935</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3217,13 +3235,13 @@
         <v>62007</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H16" s="7">
         <v>74</v>
@@ -3232,13 +3250,13 @@
         <v>51274</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="M16" s="7">
         <v>162</v>
@@ -3247,13 +3265,13 @@
         <v>113281</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3268,13 +3286,13 @@
         <v>36277</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="H17" s="7">
         <v>47</v>
@@ -3283,13 +3301,13 @@
         <v>30968</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="M17" s="7">
         <v>98</v>
@@ -3298,13 +3316,13 @@
         <v>67246</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3380,7 +3398,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{586E0E10-E8B3-430E-B041-EC7F6CD1C0C5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58DCA123-95CB-49A7-A44E-9EE493080EC9}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3397,7 +3415,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3504,13 +3522,13 @@
         <v>5346</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="H4" s="7">
         <v>4</v>
@@ -3519,13 +3537,13 @@
         <v>2111</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="M4" s="7">
         <v>12</v>
@@ -3534,13 +3552,13 @@
         <v>7457</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3555,13 +3573,13 @@
         <v>7285</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="H5" s="7">
         <v>12</v>
@@ -3570,13 +3588,13 @@
         <v>7571</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="M5" s="7">
         <v>23</v>
@@ -3585,13 +3603,13 @@
         <v>14856</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3659,13 +3677,13 @@
         <v>11255</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="H7" s="7">
         <v>18</v>
@@ -3674,13 +3692,13 @@
         <v>11731</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="M7" s="7">
         <v>35</v>
@@ -3689,13 +3707,13 @@
         <v>22985</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3710,13 +3728,13 @@
         <v>9814</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="H8" s="7">
         <v>11</v>
@@ -3725,13 +3743,13 @@
         <v>6785</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="M8" s="7">
         <v>25</v>
@@ -3740,13 +3758,13 @@
         <v>16600</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3814,13 +3832,13 @@
         <v>3615</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>235</v>
+        <v>37</v>
       </c>
       <c r="H10" s="7">
         <v>8</v>
@@ -3829,13 +3847,13 @@
         <v>5627</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="M10" s="7">
         <v>13</v>
@@ -3844,13 +3862,13 @@
         <v>9242</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>131</v>
+        <v>242</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3865,13 +3883,13 @@
         <v>2316</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>242</v>
+        <v>45</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H11" s="7">
         <v>4</v>
@@ -3880,13 +3898,13 @@
         <v>2752</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="M11" s="7">
         <v>7</v>
@@ -3895,13 +3913,13 @@
         <v>5068</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>139</v>
+        <v>249</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3969,13 +3987,13 @@
         <v>8214</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="H13" s="7">
         <v>6</v>
@@ -3984,13 +4002,13 @@
         <v>4723</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="M13" s="7">
         <v>17</v>
@@ -3999,13 +4017,13 @@
         <v>12936</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4020,13 +4038,13 @@
         <v>3602</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="H14" s="7">
         <v>9</v>
@@ -4035,13 +4053,13 @@
         <v>5822</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="M14" s="7">
         <v>14</v>
@@ -4050,13 +4068,13 @@
         <v>9425</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4124,13 +4142,13 @@
         <v>28429</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="H16" s="7">
         <v>36</v>
@@ -4139,13 +4157,13 @@
         <v>24192</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="M16" s="7">
         <v>77</v>
@@ -4154,13 +4172,13 @@
         <v>52621</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4175,13 +4193,13 @@
         <v>23018</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="H17" s="7">
         <v>36</v>
@@ -4190,13 +4208,13 @@
         <v>22931</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="M17" s="7">
         <v>69</v>
@@ -4205,13 +4223,13 @@
         <v>45949</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4287,7 +4305,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDCE8FEE-CD22-4614-8A34-95E528256325}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB353D0D-FC92-46DB-BCC0-ABB1E7384D8C}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4304,7 +4322,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4411,13 +4429,13 @@
         <v>5011</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="H4" s="7">
         <v>8</v>
@@ -4426,13 +4444,13 @@
         <v>4637</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="M4" s="7">
         <v>17</v>
@@ -4441,13 +4459,13 @@
         <v>9648</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4462,13 +4480,13 @@
         <v>5430</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="H5" s="7">
         <v>6</v>
@@ -4477,13 +4495,13 @@
         <v>3547</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="M5" s="7">
         <v>16</v>
@@ -4492,13 +4510,13 @@
         <v>8977</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4566,13 +4584,13 @@
         <v>14179</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>291</v>
+        <v>308</v>
       </c>
       <c r="H7" s="7">
         <v>14</v>
@@ -4581,13 +4599,13 @@
         <v>7454</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="M7" s="7">
         <v>38</v>
@@ -4596,13 +4614,13 @@
         <v>21632</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4617,13 +4635,13 @@
         <v>7050</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>299</v>
+        <v>316</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="H8" s="7">
         <v>3</v>
@@ -4632,13 +4650,13 @@
         <v>2047</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="M8" s="7">
         <v>16</v>
@@ -4647,13 +4665,13 @@
         <v>9097</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4721,13 +4739,13 @@
         <v>16646</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>260</v>
+        <v>325</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="H10" s="7">
         <v>19</v>
@@ -4736,13 +4754,13 @@
         <v>14199</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="M10" s="7">
         <v>39</v>
@@ -4751,13 +4769,13 @@
         <v>30845</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4772,13 +4790,13 @@
         <v>5225</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>250</v>
+        <v>335</v>
       </c>
       <c r="H11" s="7">
         <v>3</v>
@@ -4787,13 +4805,13 @@
         <v>2589</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="M11" s="7">
         <v>10</v>
@@ -4802,13 +4820,13 @@
         <v>7814</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4876,13 +4894,13 @@
         <v>28688</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="H13" s="7">
         <v>30</v>
@@ -4891,13 +4909,13 @@
         <v>22102</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="M13" s="7">
         <v>57</v>
@@ -4906,13 +4924,13 @@
         <v>50789</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4927,13 +4945,13 @@
         <v>7323</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="H14" s="7">
         <v>6</v>
@@ -4942,13 +4960,13 @@
         <v>4302</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="M14" s="7">
         <v>16</v>
@@ -4957,13 +4975,13 @@
         <v>11625</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5031,13 +5049,13 @@
         <v>64524</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="H16" s="7">
         <v>71</v>
@@ -5046,13 +5064,13 @@
         <v>48391</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="M16" s="7">
         <v>151</v>
@@ -5061,13 +5079,13 @@
         <v>112916</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5082,13 +5100,13 @@
         <v>25027</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="H17" s="7">
         <v>18</v>
@@ -5097,13 +5115,13 @@
         <v>12485</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="M17" s="7">
         <v>58</v>
@@ -5112,13 +5130,13 @@
         <v>37512</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/IP09B02-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP09B02-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B9FCE766-3CC1-476B-87CA-D1B3020C8CA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{05C018DE-4520-4CC0-A7B1-55E6E4123366}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B7B77394-F70B-4EAE-AC9D-619559B9AB54}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{EB5FF4C6-770B-4438-A08A-B9C5666D511A}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,15 +39,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="378">
-  <si>
-    <t>Menores según afecte para realizar actividades com pasear, hacer deporte,... dicha enfermedad, dolencia.. en 2007 (Tasa respuesta: 9,7%)</t>
-  </si>
-  <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="372">
+  <si>
+    <t>Menores según si dicha enfermedad o dolencia continuada le ha afectado para realizar actividades de ocio en 2007 (Tasa respuesta: 9,7%)</t>
+  </si>
+  <si>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -74,61 +74,61 @@
     <t>Sí</t>
   </si>
   <si>
+    <t>49,27%</t>
+  </si>
+  <si>
+    <t>23,73%</t>
+  </si>
+  <si>
+    <t>76,41%</t>
+  </si>
+  <si>
     <t>81,61%</t>
   </si>
   <si>
-    <t>62,95%</t>
-  </si>
-  <si>
-    <t>95,43%</t>
-  </si>
-  <si>
-    <t>49,27%</t>
-  </si>
-  <si>
-    <t>22,39%</t>
-  </si>
-  <si>
-    <t>79,19%</t>
+    <t>57,93%</t>
+  </si>
+  <si>
+    <t>95,33%</t>
   </si>
   <si>
     <t>68,77%</t>
   </si>
   <si>
-    <t>51,38%</t>
-  </si>
-  <si>
-    <t>82,61%</t>
+    <t>51,75%</t>
+  </si>
+  <si>
+    <t>83,0%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
+    <t>50,73%</t>
+  </si>
+  <si>
+    <t>23,59%</t>
+  </si>
+  <si>
+    <t>76,27%</t>
+  </si>
+  <si>
     <t>18,39%</t>
   </si>
   <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>37,05%</t>
-  </si>
-  <si>
-    <t>50,73%</t>
-  </si>
-  <si>
-    <t>20,81%</t>
-  </si>
-  <si>
-    <t>77,61%</t>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>42,07%</t>
   </si>
   <si>
     <t>31,23%</t>
   </si>
   <si>
-    <t>17,39%</t>
-  </si>
-  <si>
-    <t>48,62%</t>
+    <t>17,0%</t>
+  </si>
+  <si>
+    <t>48,25%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,1042 +137,1024 @@
     <t>3-7</t>
   </si>
   <si>
+    <t>75,58%</t>
+  </si>
+  <si>
+    <t>58,73%</t>
+  </si>
+  <si>
+    <t>87,72%</t>
+  </si>
+  <si>
     <t>75,37%</t>
   </si>
   <si>
-    <t>61,45%</t>
-  </si>
-  <si>
-    <t>85,0%</t>
-  </si>
-  <si>
-    <t>75,58%</t>
-  </si>
-  <si>
-    <t>58,5%</t>
-  </si>
-  <si>
-    <t>87,36%</t>
+    <t>60,3%</t>
+  </si>
+  <si>
+    <t>85,25%</t>
   </si>
   <si>
     <t>75,46%</t>
   </si>
   <si>
+    <t>64,13%</t>
+  </si>
+  <si>
+    <t>83,22%</t>
+  </si>
+  <si>
+    <t>24,42%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>41,27%</t>
+  </si>
+  <si>
+    <t>24,63%</t>
+  </si>
+  <si>
+    <t>14,75%</t>
+  </si>
+  <si>
+    <t>39,7%</t>
+  </si>
+  <si>
+    <t>24,54%</t>
+  </si>
+  <si>
+    <t>16,78%</t>
+  </si>
+  <si>
+    <t>35,87%</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>75,35%</t>
+  </si>
+  <si>
+    <t>52,36%</t>
+  </si>
+  <si>
+    <t>90,57%</t>
+  </si>
+  <si>
+    <t>89,91%</t>
+  </si>
+  <si>
+    <t>70,41%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>82,97%</t>
+  </si>
+  <si>
+    <t>70,45%</t>
+  </si>
+  <si>
+    <t>92,06%</t>
+  </si>
+  <si>
+    <t>24,65%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>47,64%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>29,59%</t>
+  </si>
+  <si>
+    <t>17,03%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>29,55%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>74,07%</t>
+  </si>
+  <si>
+    <t>40,73%</t>
+  </si>
+  <si>
+    <t>92,02%</t>
+  </si>
+  <si>
+    <t>88,62%</t>
+  </si>
+  <si>
+    <t>73,3%</t>
+  </si>
+  <si>
+    <t>96,39%</t>
+  </si>
+  <si>
+    <t>84,16%</t>
+  </si>
+  <si>
+    <t>69,66%</t>
+  </si>
+  <si>
+    <t>94,33%</t>
+  </si>
+  <si>
+    <t>25,93%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>59,27%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>26,7%</t>
+  </si>
+  <si>
+    <t>15,84%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>30,34%</t>
+  </si>
+  <si>
+    <t>70,89%</t>
+  </si>
+  <si>
+    <t>59,04%</t>
+  </si>
+  <si>
+    <t>79,53%</t>
+  </si>
+  <si>
+    <t>81,98%</t>
+  </si>
+  <si>
+    <t>74,61%</t>
+  </si>
+  <si>
+    <t>87,96%</t>
+  </si>
+  <si>
+    <t>77,5%</t>
+  </si>
+  <si>
+    <t>71,76%</t>
+  </si>
+  <si>
+    <t>83,16%</t>
+  </si>
+  <si>
+    <t>29,11%</t>
+  </si>
+  <si>
+    <t>20,47%</t>
+  </si>
+  <si>
+    <t>40,96%</t>
+  </si>
+  <si>
+    <t>18,02%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>25,39%</t>
+  </si>
+  <si>
+    <t>22,5%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>28,24%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si dicha enfermedad o dolencia continuada le ha afectado para realizar actividades de ocio en 2012 (Tasa respuesta: 12,39%)</t>
+  </si>
+  <si>
+    <t>43,1%</t>
+  </si>
+  <si>
+    <t>26,64%</t>
+  </si>
+  <si>
+    <t>60,57%</t>
+  </si>
+  <si>
+    <t>39,74%</t>
+  </si>
+  <si>
+    <t>22,78%</t>
+  </si>
+  <si>
+    <t>57,56%</t>
+  </si>
+  <si>
+    <t>41,35%</t>
+  </si>
+  <si>
+    <t>28,67%</t>
+  </si>
+  <si>
+    <t>53,81%</t>
+  </si>
+  <si>
+    <t>56,9%</t>
+  </si>
+  <si>
+    <t>39,43%</t>
+  </si>
+  <si>
+    <t>73,36%</t>
+  </si>
+  <si>
+    <t>60,26%</t>
+  </si>
+  <si>
+    <t>42,44%</t>
+  </si>
+  <si>
+    <t>77,22%</t>
+  </si>
+  <si>
+    <t>58,65%</t>
+  </si>
+  <si>
+    <t>46,19%</t>
+  </si>
+  <si>
+    <t>71,33%</t>
+  </si>
+  <si>
+    <t>72,92%</t>
+  </si>
+  <si>
+    <t>57,3%</t>
+  </si>
+  <si>
+    <t>83,35%</t>
+  </si>
+  <si>
+    <t>69,6%</t>
+  </si>
+  <si>
+    <t>56,0%</t>
+  </si>
+  <si>
+    <t>80,12%</t>
+  </si>
+  <si>
+    <t>71,02%</t>
+  </si>
+  <si>
+    <t>61,65%</t>
+  </si>
+  <si>
+    <t>79,6%</t>
+  </si>
+  <si>
+    <t>27,08%</t>
+  </si>
+  <si>
+    <t>16,65%</t>
+  </si>
+  <si>
+    <t>42,7%</t>
+  </si>
+  <si>
+    <t>30,4%</t>
+  </si>
+  <si>
+    <t>19,88%</t>
+  </si>
+  <si>
+    <t>44,0%</t>
+  </si>
+  <si>
+    <t>28,98%</t>
+  </si>
+  <si>
+    <t>20,4%</t>
+  </si>
+  <si>
+    <t>38,35%</t>
+  </si>
+  <si>
+    <t>64,84%</t>
+  </si>
+  <si>
+    <t>46,47%</t>
+  </si>
+  <si>
+    <t>80,17%</t>
+  </si>
+  <si>
+    <t>58,84%</t>
+  </si>
+  <si>
+    <t>37,66%</t>
+  </si>
+  <si>
+    <t>78,22%</t>
+  </si>
+  <si>
+    <t>62,29%</t>
+  </si>
+  <si>
+    <t>49,13%</t>
+  </si>
+  <si>
+    <t>75,11%</t>
+  </si>
+  <si>
+    <t>35,16%</t>
+  </si>
+  <si>
+    <t>19,83%</t>
+  </si>
+  <si>
+    <t>53,53%</t>
+  </si>
+  <si>
+    <t>41,16%</t>
+  </si>
+  <si>
+    <t>21,78%</t>
+  </si>
+  <si>
+    <t>62,34%</t>
+  </si>
+  <si>
+    <t>37,71%</t>
+  </si>
+  <si>
+    <t>24,89%</t>
+  </si>
+  <si>
+    <t>50,87%</t>
+  </si>
+  <si>
+    <t>65,54%</t>
+  </si>
+  <si>
+    <t>40,03%</t>
+  </si>
+  <si>
+    <t>84,24%</t>
+  </si>
+  <si>
+    <t>77,29%</t>
+  </si>
+  <si>
+    <t>61,51%</t>
+  </si>
+  <si>
+    <t>90,25%</t>
+  </si>
+  <si>
+    <t>73,02%</t>
+  </si>
+  <si>
+    <t>59,58%</t>
+  </si>
+  <si>
+    <t>83,36%</t>
+  </si>
+  <si>
+    <t>34,46%</t>
+  </si>
+  <si>
+    <t>15,76%</t>
+  </si>
+  <si>
+    <t>59,97%</t>
+  </si>
+  <si>
+    <t>22,71%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>38,49%</t>
+  </si>
+  <si>
+    <t>26,98%</t>
+  </si>
+  <si>
+    <t>16,64%</t>
+  </si>
+  <si>
+    <t>40,42%</t>
+  </si>
+  <si>
+    <t>52,97%</t>
+  </si>
+  <si>
+    <t>63,09%</t>
+  </si>
+  <si>
+    <t>55,32%</t>
+  </si>
+  <si>
+    <t>70,98%</t>
+  </si>
+  <si>
+    <t>62,75%</t>
+  </si>
+  <si>
+    <t>56,39%</t>
+  </si>
+  <si>
+    <t>68,05%</t>
+  </si>
+  <si>
+    <t>47,03%</t>
+  </si>
+  <si>
+    <t>36,91%</t>
+  </si>
+  <si>
+    <t>29,02%</t>
+  </si>
+  <si>
+    <t>44,68%</t>
+  </si>
+  <si>
+    <t>37,25%</t>
+  </si>
+  <si>
+    <t>31,95%</t>
+  </si>
+  <si>
+    <t>43,61%</t>
+  </si>
+  <si>
+    <t>Menores según si dicha enfermedad o dolencia continuada le ha afectado para realizar actividades de ocio en 2016 (Tasa respuesta: 6,87%)</t>
+  </si>
+  <si>
+    <t>21,8%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>45,1%</t>
+  </si>
+  <si>
+    <t>42,33%</t>
+  </si>
+  <si>
+    <t>20,36%</t>
+  </si>
+  <si>
+    <t>65,09%</t>
+  </si>
+  <si>
+    <t>33,42%</t>
+  </si>
+  <si>
+    <t>20,83%</t>
+  </si>
+  <si>
+    <t>51,02%</t>
+  </si>
+  <si>
+    <t>78,2%</t>
+  </si>
+  <si>
+    <t>54,9%</t>
+  </si>
+  <si>
+    <t>94,77%</t>
+  </si>
+  <si>
+    <t>57,67%</t>
+  </si>
+  <si>
+    <t>34,91%</t>
+  </si>
+  <si>
+    <t>79,64%</t>
+  </si>
+  <si>
+    <t>66,58%</t>
+  </si>
+  <si>
+    <t>48,98%</t>
+  </si>
+  <si>
+    <t>79,17%</t>
+  </si>
+  <si>
+    <t>63,36%</t>
+  </si>
+  <si>
+    <t>45,01%</t>
+  </si>
+  <si>
+    <t>78,13%</t>
+  </si>
+  <si>
+    <t>53,42%</t>
+  </si>
+  <si>
+    <t>34,07%</t>
+  </si>
+  <si>
+    <t>70,18%</t>
+  </si>
+  <si>
+    <t>58,07%</t>
+  </si>
+  <si>
+    <t>45,09%</t>
+  </si>
+  <si>
+    <t>69,68%</t>
+  </si>
+  <si>
+    <t>36,64%</t>
+  </si>
+  <si>
+    <t>21,87%</t>
+  </si>
+  <si>
+    <t>54,99%</t>
+  </si>
+  <si>
+    <t>46,58%</t>
+  </si>
+  <si>
+    <t>29,82%</t>
+  </si>
+  <si>
+    <t>65,93%</t>
+  </si>
+  <si>
+    <t>41,93%</t>
+  </si>
+  <si>
+    <t>30,32%</t>
+  </si>
+  <si>
+    <t>54,91%</t>
+  </si>
+  <si>
+    <t>67,16%</t>
+  </si>
+  <si>
+    <t>34,25%</t>
+  </si>
+  <si>
+    <t>91,94%</t>
+  </si>
+  <si>
+    <t>60,95%</t>
+  </si>
+  <si>
+    <t>24,21%</t>
+  </si>
+  <si>
+    <t>87,57%</t>
+  </si>
+  <si>
+    <t>64,58%</t>
+  </si>
+  <si>
+    <t>82,04%</t>
+  </si>
+  <si>
+    <t>32,84%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>65,75%</t>
+  </si>
+  <si>
+    <t>39,05%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>75,79%</t>
+  </si>
+  <si>
+    <t>35,42%</t>
+  </si>
+  <si>
+    <t>17,96%</t>
+  </si>
+  <si>
+    <t>44,79%</t>
+  </si>
+  <si>
+    <t>21,19%</t>
+  </si>
+  <si>
+    <t>70,19%</t>
+  </si>
+  <si>
+    <t>69,51%</t>
+  </si>
+  <si>
+    <t>46,14%</t>
+  </si>
+  <si>
+    <t>88,49%</t>
+  </si>
+  <si>
+    <t>57,85%</t>
+  </si>
+  <si>
+    <t>40,34%</t>
+  </si>
+  <si>
+    <t>75,01%</t>
+  </si>
+  <si>
+    <t>55,21%</t>
+  </si>
+  <si>
+    <t>29,81%</t>
+  </si>
+  <si>
+    <t>78,81%</t>
+  </si>
+  <si>
+    <t>30,49%</t>
+  </si>
+  <si>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>53,86%</t>
+  </si>
+  <si>
+    <t>42,15%</t>
+  </si>
+  <si>
+    <t>24,99%</t>
+  </si>
+  <si>
+    <t>59,66%</t>
+  </si>
+  <si>
+    <t>51,34%</t>
+  </si>
+  <si>
+    <t>39,66%</t>
+  </si>
+  <si>
+    <t>62,55%</t>
+  </si>
+  <si>
+    <t>55,26%</t>
+  </si>
+  <si>
+    <t>43,35%</t>
+  </si>
+  <si>
+    <t>66,85%</t>
+  </si>
+  <si>
+    <t>53,38%</t>
+  </si>
+  <si>
+    <t>45,34%</t>
+  </si>
+  <si>
+    <t>61,22%</t>
+  </si>
+  <si>
+    <t>48,66%</t>
+  </si>
+  <si>
+    <t>37,45%</t>
+  </si>
+  <si>
+    <t>60,34%</t>
+  </si>
+  <si>
+    <t>44,74%</t>
+  </si>
+  <si>
+    <t>33,15%</t>
+  </si>
+  <si>
+    <t>56,65%</t>
+  </si>
+  <si>
+    <t>46,62%</t>
+  </si>
+  <si>
+    <t>38,78%</t>
+  </si>
+  <si>
+    <t>54,66%</t>
+  </si>
+  <si>
+    <t>Menores según si dicha enfermedad o dolencia continuada le ha afectado para realizar actividades de ocio en 2023 (Tasa respuesta: 10,89%)</t>
+  </si>
+  <si>
+    <t>57,19%</t>
+  </si>
+  <si>
+    <t>26,38%</t>
+  </si>
+  <si>
+    <t>82,83%</t>
+  </si>
+  <si>
+    <t>49,64%</t>
+  </si>
+  <si>
+    <t>26,92%</t>
+  </si>
+  <si>
+    <t>73,92%</t>
+  </si>
+  <si>
+    <t>52,78%</t>
+  </si>
+  <si>
+    <t>34,57%</t>
+  </si>
+  <si>
+    <t>70,31%</t>
+  </si>
+  <si>
+    <t>42,81%</t>
+  </si>
+  <si>
+    <t>17,17%</t>
+  </si>
+  <si>
+    <t>73,62%</t>
+  </si>
+  <si>
+    <t>50,36%</t>
+  </si>
+  <si>
+    <t>26,08%</t>
+  </si>
+  <si>
+    <t>73,08%</t>
+  </si>
+  <si>
+    <t>47,22%</t>
+  </si>
+  <si>
+    <t>29,69%</t>
+  </si>
+  <si>
     <t>65,43%</t>
   </si>
   <si>
-    <t>83,79%</t>
-  </si>
-  <si>
-    <t>24,63%</t>
-  </si>
-  <si>
-    <t>15,0%</t>
-  </si>
-  <si>
-    <t>38,55%</t>
-  </si>
-  <si>
-    <t>24,42%</t>
-  </si>
-  <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>41,5%</t>
-  </si>
-  <si>
-    <t>24,54%</t>
-  </si>
-  <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>34,57%</t>
-  </si>
-  <si>
-    <t>8-11</t>
-  </si>
-  <si>
-    <t>89,91%</t>
-  </si>
-  <si>
-    <t>69,03%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>75,35%</t>
-  </si>
-  <si>
-    <t>49,91%</t>
-  </si>
-  <si>
-    <t>90,5%</t>
-  </si>
-  <si>
-    <t>82,97%</t>
-  </si>
-  <si>
-    <t>70,07%</t>
-  </si>
-  <si>
-    <t>92,96%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>30,97%</t>
-  </si>
-  <si>
-    <t>24,65%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>50,09%</t>
-  </si>
-  <si>
-    <t>17,03%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>29,93%</t>
-  </si>
-  <si>
-    <t>12-15</t>
-  </si>
-  <si>
-    <t>88,62%</t>
-  </si>
-  <si>
-    <t>73,07%</t>
-  </si>
-  <si>
-    <t>96,39%</t>
-  </si>
-  <si>
-    <t>74,07%</t>
-  </si>
-  <si>
-    <t>41,56%</t>
-  </si>
-  <si>
-    <t>92,11%</t>
-  </si>
-  <si>
-    <t>84,16%</t>
-  </si>
-  <si>
-    <t>69,69%</t>
-  </si>
-  <si>
-    <t>94,3%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>26,93%</t>
-  </si>
-  <si>
-    <t>25,93%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>58,44%</t>
-  </si>
-  <si>
-    <t>15,84%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>30,31%</t>
-  </si>
-  <si>
-    <t>81,98%</t>
-  </si>
-  <si>
-    <t>73,9%</t>
-  </si>
-  <si>
-    <t>88,28%</t>
-  </si>
-  <si>
-    <t>70,89%</t>
-  </si>
-  <si>
-    <t>60,24%</t>
-  </si>
-  <si>
-    <t>80,3%</t>
-  </si>
-  <si>
-    <t>77,5%</t>
-  </si>
-  <si>
-    <t>71,75%</t>
-  </si>
-  <si>
-    <t>83,11%</t>
-  </si>
-  <si>
-    <t>18,02%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>26,1%</t>
-  </si>
-  <si>
-    <t>29,11%</t>
-  </si>
-  <si>
-    <t>19,7%</t>
-  </si>
-  <si>
-    <t>39,76%</t>
-  </si>
-  <si>
-    <t>22,5%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>28,25%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según afecte para realizar actividades com pasear, hacer deporte,... dicha enfermedad, dolencia.. en 2012 (Tasa respuesta: 12,39%)</t>
-  </si>
-  <si>
-    <t>39,74%</t>
-  </si>
-  <si>
-    <t>24,39%</t>
-  </si>
-  <si>
-    <t>58,13%</t>
-  </si>
-  <si>
-    <t>43,1%</t>
-  </si>
-  <si>
-    <t>25,52%</t>
-  </si>
-  <si>
-    <t>60,63%</t>
-  </si>
-  <si>
-    <t>41,35%</t>
-  </si>
-  <si>
-    <t>30,32%</t>
-  </si>
-  <si>
-    <t>54,96%</t>
-  </si>
-  <si>
-    <t>60,26%</t>
-  </si>
-  <si>
-    <t>41,87%</t>
-  </si>
-  <si>
-    <t>75,61%</t>
-  </si>
-  <si>
-    <t>56,9%</t>
-  </si>
-  <si>
-    <t>39,37%</t>
-  </si>
-  <si>
-    <t>74,48%</t>
-  </si>
-  <si>
-    <t>58,65%</t>
-  </si>
-  <si>
-    <t>45,04%</t>
-  </si>
-  <si>
-    <t>69,68%</t>
-  </si>
-  <si>
-    <t>69,6%</t>
-  </si>
-  <si>
-    <t>56,26%</t>
-  </si>
-  <si>
-    <t>81,54%</t>
-  </si>
-  <si>
-    <t>72,92%</t>
-  </si>
-  <si>
-    <t>56,12%</t>
-  </si>
-  <si>
-    <t>83,56%</t>
-  </si>
-  <si>
-    <t>71,02%</t>
-  </si>
-  <si>
-    <t>60,94%</t>
-  </si>
-  <si>
-    <t>79,65%</t>
-  </si>
-  <si>
-    <t>30,4%</t>
-  </si>
-  <si>
-    <t>18,46%</t>
-  </si>
-  <si>
-    <t>43,74%</t>
-  </si>
-  <si>
-    <t>27,08%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>43,88%</t>
-  </si>
-  <si>
-    <t>28,98%</t>
-  </si>
-  <si>
-    <t>20,35%</t>
-  </si>
-  <si>
-    <t>39,06%</t>
-  </si>
-  <si>
-    <t>58,84%</t>
-  </si>
-  <si>
-    <t>37,07%</t>
-  </si>
-  <si>
-    <t>78,71%</t>
-  </si>
-  <si>
-    <t>64,84%</t>
-  </si>
-  <si>
-    <t>45,73%</t>
-  </si>
-  <si>
-    <t>82,29%</t>
-  </si>
-  <si>
-    <t>62,29%</t>
-  </si>
-  <si>
-    <t>48,61%</t>
-  </si>
-  <si>
-    <t>74,95%</t>
-  </si>
-  <si>
-    <t>41,16%</t>
-  </si>
-  <si>
-    <t>21,29%</t>
-  </si>
-  <si>
-    <t>62,93%</t>
-  </si>
-  <si>
-    <t>35,16%</t>
-  </si>
-  <si>
-    <t>17,71%</t>
-  </si>
-  <si>
-    <t>54,27%</t>
-  </si>
-  <si>
-    <t>37,71%</t>
-  </si>
-  <si>
-    <t>25,05%</t>
-  </si>
-  <si>
-    <t>51,39%</t>
-  </si>
-  <si>
-    <t>77,29%</t>
-  </si>
-  <si>
-    <t>60,66%</t>
-  </si>
-  <si>
-    <t>89,27%</t>
-  </si>
-  <si>
-    <t>65,54%</t>
-  </si>
-  <si>
-    <t>44,28%</t>
-  </si>
-  <si>
-    <t>85,09%</t>
-  </si>
-  <si>
-    <t>73,02%</t>
-  </si>
-  <si>
-    <t>58,99%</t>
-  </si>
-  <si>
-    <t>83,75%</t>
-  </si>
-  <si>
-    <t>22,71%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>39,34%</t>
-  </si>
-  <si>
-    <t>34,46%</t>
-  </si>
-  <si>
-    <t>14,91%</t>
-  </si>
-  <si>
-    <t>55,72%</t>
-  </si>
-  <si>
-    <t>26,98%</t>
-  </si>
-  <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>41,01%</t>
-  </si>
-  <si>
-    <t>63,09%</t>
-  </si>
-  <si>
-    <t>54,65%</t>
-  </si>
-  <si>
-    <t>70,96%</t>
-  </si>
-  <si>
-    <t>62,34%</t>
-  </si>
-  <si>
-    <t>52,31%</t>
-  </si>
-  <si>
-    <t>70,35%</t>
-  </si>
-  <si>
-    <t>62,75%</t>
-  </si>
-  <si>
-    <t>56,67%</t>
-  </si>
-  <si>
-    <t>68,3%</t>
-  </si>
-  <si>
-    <t>36,91%</t>
-  </si>
-  <si>
-    <t>29,04%</t>
-  </si>
-  <si>
-    <t>45,35%</t>
-  </si>
-  <si>
-    <t>37,66%</t>
-  </si>
-  <si>
-    <t>29,65%</t>
-  </si>
-  <si>
-    <t>47,69%</t>
-  </si>
-  <si>
-    <t>37,25%</t>
-  </si>
-  <si>
-    <t>31,7%</t>
-  </si>
-  <si>
-    <t>43,33%</t>
-  </si>
-  <si>
-    <t>Menores según afecte para realizar actividades com pasear, hacer deporte,... dicha enfermedad, dolencia.. en 2016 (Tasa respuesta: 6,87%)</t>
-  </si>
-  <si>
-    <t>42,33%</t>
-  </si>
-  <si>
-    <t>22,28%</t>
-  </si>
-  <si>
-    <t>66,54%</t>
-  </si>
-  <si>
-    <t>21,8%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>47,05%</t>
-  </si>
-  <si>
-    <t>33,42%</t>
-  </si>
-  <si>
-    <t>18,34%</t>
-  </si>
-  <si>
-    <t>49,4%</t>
-  </si>
-  <si>
-    <t>57,67%</t>
-  </si>
-  <si>
-    <t>33,46%</t>
-  </si>
-  <si>
-    <t>77,72%</t>
-  </si>
-  <si>
-    <t>78,2%</t>
-  </si>
-  <si>
-    <t>52,95%</t>
-  </si>
-  <si>
-    <t>94,28%</t>
-  </si>
-  <si>
-    <t>66,58%</t>
-  </si>
-  <si>
-    <t>50,6%</t>
-  </si>
-  <si>
-    <t>81,66%</t>
-  </si>
-  <si>
-    <t>53,42%</t>
-  </si>
-  <si>
-    <t>34,7%</t>
-  </si>
-  <si>
-    <t>70,63%</t>
-  </si>
-  <si>
-    <t>63,36%</t>
-  </si>
-  <si>
-    <t>43,12%</t>
-  </si>
-  <si>
-    <t>80,06%</t>
-  </si>
-  <si>
-    <t>58,07%</t>
-  </si>
-  <si>
-    <t>44,29%</t>
-  </si>
-  <si>
-    <t>70,78%</t>
-  </si>
-  <si>
-    <t>46,58%</t>
-  </si>
-  <si>
-    <t>29,37%</t>
-  </si>
-  <si>
-    <t>65,3%</t>
-  </si>
-  <si>
-    <t>36,64%</t>
-  </si>
-  <si>
-    <t>19,94%</t>
-  </si>
-  <si>
-    <t>56,88%</t>
-  </si>
-  <si>
-    <t>41,93%</t>
-  </si>
-  <si>
-    <t>29,22%</t>
-  </si>
-  <si>
-    <t>55,71%</t>
-  </si>
-  <si>
-    <t>60,95%</t>
-  </si>
-  <si>
-    <t>22,9%</t>
-  </si>
-  <si>
-    <t>67,16%</t>
-  </si>
-  <si>
-    <t>38,65%</t>
-  </si>
-  <si>
-    <t>88,88%</t>
-  </si>
-  <si>
-    <t>64,58%</t>
-  </si>
-  <si>
-    <t>41,72%</t>
-  </si>
-  <si>
-    <t>85,35%</t>
-  </si>
-  <si>
-    <t>39,05%</t>
-  </si>
-  <si>
-    <t>77,1%</t>
-  </si>
-  <si>
-    <t>32,84%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>61,35%</t>
-  </si>
-  <si>
-    <t>35,42%</t>
-  </si>
-  <si>
-    <t>14,65%</t>
-  </si>
-  <si>
-    <t>58,28%</t>
-  </si>
-  <si>
-    <t>69,51%</t>
-  </si>
-  <si>
-    <t>45,24%</t>
-  </si>
-  <si>
-    <t>93,65%</t>
-  </si>
-  <si>
-    <t>44,79%</t>
-  </si>
-  <si>
-    <t>21,51%</t>
-  </si>
-  <si>
-    <t>70,2%</t>
-  </si>
-  <si>
-    <t>57,85%</t>
-  </si>
-  <si>
-    <t>39,95%</t>
-  </si>
-  <si>
-    <t>73,42%</t>
-  </si>
-  <si>
-    <t>30,49%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>54,76%</t>
-  </si>
-  <si>
-    <t>55,21%</t>
-  </si>
-  <si>
-    <t>29,8%</t>
-  </si>
-  <si>
-    <t>78,49%</t>
-  </si>
-  <si>
-    <t>42,15%</t>
-  </si>
-  <si>
-    <t>26,58%</t>
-  </si>
-  <si>
-    <t>60,05%</t>
-  </si>
-  <si>
-    <t>55,26%</t>
-  </si>
-  <si>
-    <t>44,25%</t>
-  </si>
-  <si>
-    <t>65,7%</t>
-  </si>
-  <si>
-    <t>51,34%</t>
-  </si>
-  <si>
-    <t>40,2%</t>
-  </si>
-  <si>
-    <t>63,4%</t>
-  </si>
-  <si>
-    <t>53,38%</t>
-  </si>
-  <si>
-    <t>45,05%</t>
-  </si>
-  <si>
-    <t>61,91%</t>
-  </si>
-  <si>
-    <t>44,74%</t>
-  </si>
-  <si>
-    <t>34,3%</t>
-  </si>
-  <si>
-    <t>55,75%</t>
-  </si>
-  <si>
-    <t>48,66%</t>
-  </si>
-  <si>
-    <t>36,6%</t>
-  </si>
-  <si>
-    <t>59,8%</t>
-  </si>
-  <si>
-    <t>46,62%</t>
-  </si>
-  <si>
-    <t>38,09%</t>
-  </si>
-  <si>
-    <t>54,95%</t>
-  </si>
-  <si>
-    <t>Menores según afecte para realizar actividades com pasear, hacer deporte,... dicha enfermedad, dolencia.. en 2023 (Tasa respuesta: 10,89%)</t>
-  </si>
-  <si>
-    <t>48,0%</t>
-  </si>
-  <si>
-    <t>25,6%</t>
-  </si>
-  <si>
-    <t>73,22%</t>
-  </si>
-  <si>
-    <t>56,66%</t>
-  </si>
-  <si>
-    <t>29,98%</t>
-  </si>
-  <si>
-    <t>82,59%</t>
-  </si>
-  <si>
-    <t>51,8%</t>
-  </si>
-  <si>
-    <t>34,51%</t>
-  </si>
-  <si>
-    <t>68,99%</t>
-  </si>
-  <si>
-    <t>52,0%</t>
-  </si>
-  <si>
-    <t>26,78%</t>
-  </si>
-  <si>
-    <t>74,4%</t>
-  </si>
-  <si>
-    <t>43,34%</t>
-  </si>
-  <si>
-    <t>17,41%</t>
-  </si>
-  <si>
-    <t>70,02%</t>
-  </si>
-  <si>
-    <t>48,2%</t>
-  </si>
-  <si>
-    <t>31,01%</t>
-  </si>
-  <si>
-    <t>65,49%</t>
-  </si>
-  <si>
-    <t>66,79%</t>
-  </si>
-  <si>
-    <t>48,55%</t>
-  </si>
-  <si>
-    <t>81,7%</t>
-  </si>
-  <si>
-    <t>78,45%</t>
-  </si>
-  <si>
-    <t>50,31%</t>
-  </si>
-  <si>
-    <t>95,75%</t>
-  </si>
-  <si>
-    <t>70,4%</t>
-  </si>
-  <si>
-    <t>55,76%</t>
-  </si>
-  <si>
-    <t>81,4%</t>
-  </si>
-  <si>
-    <t>33,21%</t>
-  </si>
-  <si>
-    <t>18,3%</t>
-  </si>
-  <si>
-    <t>51,45%</t>
-  </si>
-  <si>
-    <t>21,55%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>49,69%</t>
-  </si>
-  <si>
-    <t>29,6%</t>
-  </si>
-  <si>
-    <t>18,6%</t>
-  </si>
-  <si>
-    <t>44,24%</t>
-  </si>
-  <si>
-    <t>76,11%</t>
-  </si>
-  <si>
-    <t>57,93%</t>
-  </si>
-  <si>
-    <t>90,27%</t>
-  </si>
-  <si>
-    <t>84,58%</t>
-  </si>
-  <si>
-    <t>59,91%</t>
-  </si>
-  <si>
-    <t>95,19%</t>
-  </si>
-  <si>
-    <t>79,79%</t>
-  </si>
-  <si>
-    <t>65,92%</t>
-  </si>
-  <si>
-    <t>89,55%</t>
-  </si>
-  <si>
-    <t>23,89%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>42,07%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>40,09%</t>
-  </si>
-  <si>
-    <t>20,21%</t>
-  </si>
-  <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>34,08%</t>
-  </si>
-  <si>
-    <t>79,66%</t>
-  </si>
-  <si>
-    <t>62,99%</t>
+    <t>79,74%</t>
+  </si>
+  <si>
+    <t>48,33%</t>
+  </si>
+  <si>
+    <t>95,4%</t>
+  </si>
+  <si>
+    <t>67,9%</t>
+  </si>
+  <si>
+    <t>49,74%</t>
+  </si>
+  <si>
+    <t>80,53%</t>
+  </si>
+  <si>
+    <t>71,35%</t>
+  </si>
+  <si>
+    <t>58,81%</t>
+  </si>
+  <si>
+    <t>82,84%</t>
+  </si>
+  <si>
+    <t>20,26%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>51,67%</t>
+  </si>
+  <si>
+    <t>32,1%</t>
+  </si>
+  <si>
+    <t>19,47%</t>
+  </si>
+  <si>
+    <t>50,26%</t>
+  </si>
+  <si>
+    <t>28,65%</t>
+  </si>
+  <si>
+    <t>17,16%</t>
+  </si>
+  <si>
+    <t>41,19%</t>
+  </si>
+  <si>
+    <t>85,45%</t>
+  </si>
+  <si>
+    <t>61,94%</t>
+  </si>
+  <si>
+    <t>95,47%</t>
+  </si>
+  <si>
+    <t>76,93%</t>
+  </si>
+  <si>
+    <t>59,74%</t>
+  </si>
+  <si>
+    <t>89,92%</t>
+  </si>
+  <si>
+    <t>80,48%</t>
+  </si>
+  <si>
+    <t>67,19%</t>
+  </si>
+  <si>
+    <t>89,89%</t>
+  </si>
+  <si>
+    <t>14,55%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>38,06%</t>
+  </si>
+  <si>
+    <t>23,07%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>40,26%</t>
+  </si>
+  <si>
+    <t>19,52%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>32,81%</t>
+  </si>
+  <si>
+    <t>85,72%</t>
+  </si>
+  <si>
+    <t>95,45%</t>
+  </si>
+  <si>
+    <t>82,8%</t>
+  </si>
+  <si>
+    <t>68,57%</t>
+  </si>
+  <si>
+    <t>94,31%</t>
+  </si>
+  <si>
+    <t>84,01%</t>
+  </si>
+  <si>
+    <t>73,95%</t>
   </si>
   <si>
     <t>91,68%</t>
   </si>
   <si>
-    <t>83,71%</t>
-  </si>
-  <si>
-    <t>66,57%</t>
-  </si>
-  <si>
-    <t>93,11%</t>
-  </si>
-  <si>
-    <t>81,37%</t>
-  </si>
-  <si>
-    <t>70,36%</t>
-  </si>
-  <si>
-    <t>89,48%</t>
-  </si>
-  <si>
-    <t>20,34%</t>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>17,2%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>31,43%</t>
+  </si>
+  <si>
+    <t>15,99%</t>
   </si>
   <si>
     <t>8,32%</t>
   </si>
   <si>
-    <t>37,01%</t>
-  </si>
-  <si>
-    <t>16,29%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>33,43%</t>
-  </si>
-  <si>
-    <t>18,63%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>29,64%</t>
-  </si>
-  <si>
-    <t>72,05%</t>
-  </si>
-  <si>
-    <t>61,88%</t>
-  </si>
-  <si>
-    <t>80,32%</t>
-  </si>
-  <si>
-    <t>79,49%</t>
-  </si>
-  <si>
-    <t>69,34%</t>
-  </si>
-  <si>
-    <t>87,56%</t>
-  </si>
-  <si>
-    <t>75,06%</t>
-  </si>
-  <si>
-    <t>68,69%</t>
-  </si>
-  <si>
-    <t>80,87%</t>
-  </si>
-  <si>
-    <t>27,95%</t>
-  </si>
-  <si>
-    <t>19,68%</t>
-  </si>
-  <si>
-    <t>38,12%</t>
-  </si>
-  <si>
-    <t>20,51%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>30,66%</t>
-  </si>
-  <si>
-    <t>24,94%</t>
-  </si>
-  <si>
-    <t>19,13%</t>
-  </si>
-  <si>
-    <t>31,31%</t>
+    <t>26,05%</t>
+  </si>
+  <si>
+    <t>81,1%</t>
+  </si>
+  <si>
+    <t>70,22%</t>
+  </si>
+  <si>
+    <t>88,39%</t>
+  </si>
+  <si>
+    <t>74,17%</t>
+  </si>
+  <si>
+    <t>66,16%</t>
+  </si>
+  <si>
+    <t>83,51%</t>
+  </si>
+  <si>
+    <t>76,88%</t>
+  </si>
+  <si>
+    <t>70,55%</t>
+  </si>
+  <si>
+    <t>83,15%</t>
+  </si>
+  <si>
+    <t>18,9%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>29,78%</t>
+  </si>
+  <si>
+    <t>25,83%</t>
+  </si>
+  <si>
+    <t>16,49%</t>
+  </si>
+  <si>
+    <t>33,84%</t>
+  </si>
+  <si>
+    <t>23,12%</t>
+  </si>
+  <si>
+    <t>16,85%</t>
+  </si>
+  <si>
+    <t>29,45%</t>
   </si>
 </sst>
 </file>
@@ -1584,7 +1566,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F9E2B98-4A86-425F-8D7F-F5A7F38935BB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FFB6CD4-2A63-49B1-AA93-B7674DDB95C3}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1702,10 +1684,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D4" s="7">
-        <v>11575</v>
+        <v>4600</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1717,10 +1699,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="I4" s="7">
-        <v>4600</v>
+        <v>11575</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1753,10 +1735,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D5" s="7">
-        <v>2608</v>
+        <v>4736</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1768,10 +1750,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I5" s="7">
-        <v>4736</v>
+        <v>2608</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1804,25 +1786,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>14</v>
+      </c>
+      <c r="D6" s="7">
+        <v>9336</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="7">
         <v>21</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>14183</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="7">
-        <v>14</v>
-      </c>
-      <c r="I6" s="7">
-        <v>9336</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1857,10 +1839,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="D7" s="7">
-        <v>26487</v>
+        <v>18642</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1872,10 +1854,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="I7" s="7">
-        <v>18642</v>
+        <v>26487</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1908,10 +1890,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D8" s="7">
-        <v>8654</v>
+        <v>6023</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1923,10 +1905,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="I8" s="7">
-        <v>6023</v>
+        <v>8654</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1959,25 +1941,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>36</v>
+      </c>
+      <c r="D9" s="7">
+        <v>24665</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="7">
         <v>52</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>35141</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="7">
-        <v>36</v>
-      </c>
-      <c r="I9" s="7">
-        <v>24665</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -2012,10 +1994,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D10" s="7">
-        <v>13521</v>
+        <v>10322</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -2027,10 +2009,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I10" s="7">
-        <v>10322</v>
+        <v>13521</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -2063,10 +2045,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D11" s="7">
-        <v>1517</v>
+        <v>3377</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -2078,10 +2060,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I11" s="7">
-        <v>3377</v>
+        <v>1517</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -2114,25 +2096,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>20</v>
+      </c>
+      <c r="D12" s="7">
+        <v>13699</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="7">
         <v>22</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>15038</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" s="7">
-        <v>20</v>
-      </c>
-      <c r="I12" s="7">
-        <v>13699</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -2167,10 +2149,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="D13" s="7">
-        <v>15748</v>
+        <v>5832</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>70</v>
@@ -2182,10 +2164,10 @@
         <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="I13" s="7">
-        <v>5832</v>
+        <v>15748</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>73</v>
@@ -2221,7 +2203,7 @@
         <v>3</v>
       </c>
       <c r="D14" s="7">
-        <v>2021</v>
+        <v>2042</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>79</v>
@@ -2236,7 +2218,7 @@
         <v>3</v>
       </c>
       <c r="I14" s="7">
-        <v>2042</v>
+        <v>2021</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>82</v>
@@ -2269,25 +2251,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>12</v>
+      </c>
+      <c r="D15" s="7">
+        <v>7874</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
         <v>27</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>17769</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
-        <v>12</v>
-      </c>
-      <c r="I15" s="7">
-        <v>7874</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2322,10 +2304,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>100</v>
+        <v>59</v>
       </c>
       <c r="D16" s="7">
-        <v>67331</v>
+        <v>39396</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>88</v>
@@ -2337,10 +2319,10 @@
         <v>90</v>
       </c>
       <c r="H16" s="7">
-        <v>59</v>
+        <v>100</v>
       </c>
       <c r="I16" s="7">
-        <v>39396</v>
+        <v>67331</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>91</v>
@@ -2373,10 +2355,10 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D17" s="7">
-        <v>14800</v>
+        <v>16178</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>97</v>
@@ -2388,10 +2370,10 @@
         <v>99</v>
       </c>
       <c r="H17" s="7">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I17" s="7">
-        <v>16178</v>
+        <v>14800</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>100</v>
@@ -2424,25 +2406,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>82</v>
+      </c>
+      <c r="D18" s="7">
+        <v>55574</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
         <v>122</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>82131</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H18" s="7">
-        <v>82</v>
-      </c>
-      <c r="I18" s="7">
-        <v>55574</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -2491,7 +2473,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F6DE455-B95F-4571-8968-F7E9C6B802C7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C09B046-FBCD-453B-B14D-BA0F69FFAE75}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2609,10 +2591,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D4" s="7">
-        <v>8775</v>
+        <v>8783</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>108</v>
@@ -2624,10 +2606,10 @@
         <v>110</v>
       </c>
       <c r="H4" s="7">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I4" s="7">
-        <v>8783</v>
+        <v>8775</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>111</v>
@@ -2660,10 +2642,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D5" s="7">
-        <v>13304</v>
+        <v>11598</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>117</v>
@@ -2675,10 +2657,10 @@
         <v>119</v>
       </c>
       <c r="H5" s="7">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I5" s="7">
-        <v>11598</v>
+        <v>13304</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>120</v>
@@ -2711,25 +2693,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>31</v>
+      </c>
+      <c r="D6" s="7">
+        <v>20381</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="7">
         <v>32</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>22079</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="7">
-        <v>31</v>
-      </c>
-      <c r="I6" s="7">
-        <v>20381</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -2764,10 +2746,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="D7" s="7">
-        <v>26303</v>
+        <v>20629</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>126</v>
@@ -2779,10 +2761,10 @@
         <v>128</v>
       </c>
       <c r="H7" s="7">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="I7" s="7">
-        <v>20629</v>
+        <v>26303</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>129</v>
@@ -2815,10 +2797,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D8" s="7">
-        <v>11490</v>
+        <v>7659</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>135</v>
@@ -2830,10 +2812,10 @@
         <v>137</v>
       </c>
       <c r="H8" s="7">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I8" s="7">
-        <v>7659</v>
+        <v>11490</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>138</v>
@@ -2866,25 +2848,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>42</v>
+      </c>
+      <c r="D9" s="7">
+        <v>28288</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="7">
         <v>52</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>37793</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="7">
-        <v>42</v>
-      </c>
-      <c r="I9" s="7">
-        <v>28288</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -2919,10 +2901,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D10" s="7">
-        <v>8803</v>
+        <v>13097</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>144</v>
@@ -2934,10 +2916,10 @@
         <v>146</v>
       </c>
       <c r="H10" s="7">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I10" s="7">
-        <v>13097</v>
+        <v>8803</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>147</v>
@@ -2970,10 +2952,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D11" s="7">
-        <v>6158</v>
+        <v>7102</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>153</v>
@@ -2985,10 +2967,10 @@
         <v>155</v>
       </c>
       <c r="H11" s="7">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I11" s="7">
-        <v>7102</v>
+        <v>6158</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>156</v>
@@ -3021,25 +3003,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>28</v>
+      </c>
+      <c r="D12" s="7">
+        <v>20199</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="7">
         <v>21</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>14961</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" s="7">
-        <v>28</v>
-      </c>
-      <c r="I12" s="7">
-        <v>20199</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3074,10 +3056,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="D13" s="7">
-        <v>18126</v>
+        <v>8766</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>162</v>
@@ -3089,10 +3071,10 @@
         <v>164</v>
       </c>
       <c r="H13" s="7">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="I13" s="7">
-        <v>8766</v>
+        <v>18126</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>165</v>
@@ -3128,7 +3110,7 @@
         <v>7</v>
       </c>
       <c r="D14" s="7">
-        <v>5325</v>
+        <v>4609</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>171</v>
@@ -3143,7 +3125,7 @@
         <v>7</v>
       </c>
       <c r="I14" s="7">
-        <v>4609</v>
+        <v>5325</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>174</v>
@@ -3176,25 +3158,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>20</v>
+      </c>
+      <c r="D15" s="7">
+        <v>13375</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
         <v>34</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>23451</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
-        <v>20</v>
-      </c>
-      <c r="I15" s="7">
-        <v>13375</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -3229,34 +3211,34 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>74</v>
+      </c>
+      <c r="D16" s="7">
+        <v>51274</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H16" s="7">
         <v>88</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>62007</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="F16" s="7" t="s">
+      <c r="J16" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="H16" s="7">
-        <v>74</v>
-      </c>
-      <c r="I16" s="7">
-        <v>51274</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>185</v>
       </c>
       <c r="M16" s="7">
         <v>162</v>
@@ -3265,13 +3247,13 @@
         <v>113281</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3280,34 +3262,34 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
+        <v>47</v>
+      </c>
+      <c r="D17" s="7">
+        <v>30968</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="H17" s="7">
         <v>51</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>36277</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="J17" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="H17" s="7">
-        <v>47</v>
-      </c>
-      <c r="I17" s="7">
-        <v>30968</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>194</v>
       </c>
       <c r="M17" s="7">
         <v>98</v>
@@ -3316,13 +3298,13 @@
         <v>67246</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3331,25 +3313,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>121</v>
+      </c>
+      <c r="D18" s="7">
+        <v>82242</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
         <v>139</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>98284</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H18" s="7">
-        <v>121</v>
-      </c>
-      <c r="I18" s="7">
-        <v>82242</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -3398,7 +3380,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58DCA123-95CB-49A7-A44E-9EE493080EC9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7260072F-7317-4CD0-89BE-650B037CCC6E}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3415,7 +3397,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3516,34 +3498,34 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
+        <v>4</v>
+      </c>
+      <c r="D4" s="7">
+        <v>2111</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="H4" s="7">
         <v>8</v>
       </c>
-      <c r="D4" s="7">
+      <c r="I4" s="7">
         <v>5346</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="J4" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="H4" s="7">
-        <v>4</v>
-      </c>
-      <c r="I4" s="7">
-        <v>2111</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>204</v>
       </c>
       <c r="M4" s="7">
         <v>12</v>
@@ -3552,13 +3534,13 @@
         <v>7457</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3567,34 +3549,34 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
+        <v>12</v>
+      </c>
+      <c r="D5" s="7">
+        <v>7571</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="H5" s="7">
         <v>11</v>
       </c>
-      <c r="D5" s="7">
+      <c r="I5" s="7">
         <v>7285</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="J5" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="H5" s="7">
-        <v>12</v>
-      </c>
-      <c r="I5" s="7">
-        <v>7571</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>213</v>
       </c>
       <c r="M5" s="7">
         <v>23</v>
@@ -3603,13 +3585,13 @@
         <v>14856</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3618,25 +3600,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>16</v>
+      </c>
+      <c r="D6" s="7">
+        <v>9682</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="7">
         <v>19</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>12631</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="7">
-        <v>16</v>
-      </c>
-      <c r="I6" s="7">
-        <v>9682</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3671,34 +3653,34 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
+        <v>18</v>
+      </c>
+      <c r="D7" s="7">
+        <v>11731</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="H7" s="7">
         <v>17</v>
       </c>
-      <c r="D7" s="7">
+      <c r="I7" s="7">
         <v>11255</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="J7" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="H7" s="7">
-        <v>18</v>
-      </c>
-      <c r="I7" s="7">
-        <v>11731</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>222</v>
       </c>
       <c r="M7" s="7">
         <v>35</v>
@@ -3707,13 +3689,13 @@
         <v>22985</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3722,34 +3704,34 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
+        <v>11</v>
+      </c>
+      <c r="D8" s="7">
+        <v>6785</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="H8" s="7">
         <v>14</v>
       </c>
-      <c r="D8" s="7">
+      <c r="I8" s="7">
         <v>9814</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="J8" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="H8" s="7">
-        <v>11</v>
-      </c>
-      <c r="I8" s="7">
-        <v>6785</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>231</v>
       </c>
       <c r="M8" s="7">
         <v>25</v>
@@ -3758,13 +3740,13 @@
         <v>16600</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3773,25 +3755,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>29</v>
+      </c>
+      <c r="D9" s="7">
+        <v>18516</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="7">
         <v>31</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>21069</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="7">
-        <v>29</v>
-      </c>
-      <c r="I9" s="7">
-        <v>18516</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3826,34 +3808,34 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>8</v>
+      </c>
+      <c r="D10" s="7">
+        <v>5627</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="H10" s="7">
         <v>5</v>
       </c>
-      <c r="D10" s="7">
+      <c r="I10" s="7">
         <v>3615</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="J10" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>236</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="H10" s="7">
-        <v>8</v>
-      </c>
-      <c r="I10" s="7">
-        <v>5627</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>239</v>
       </c>
       <c r="M10" s="7">
         <v>13</v>
@@ -3862,13 +3844,13 @@
         <v>9242</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>241</v>
+        <v>191</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3877,34 +3859,34 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
+        <v>4</v>
+      </c>
+      <c r="D11" s="7">
+        <v>2752</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="H11" s="7">
         <v>3</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>2316</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="J11" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="F11" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>244</v>
-      </c>
-      <c r="H11" s="7">
-        <v>4</v>
-      </c>
-      <c r="I11" s="7">
-        <v>2752</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>247</v>
       </c>
       <c r="M11" s="7">
         <v>7</v>
@@ -3913,13 +3895,13 @@
         <v>5068</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>250</v>
+        <v>184</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3928,25 +3910,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>12</v>
+      </c>
+      <c r="D12" s="7">
+        <v>8379</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="7">
         <v>8</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>5931</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" s="7">
-        <v>12</v>
-      </c>
-      <c r="I12" s="7">
-        <v>8379</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3981,34 +3963,34 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
+        <v>6</v>
+      </c>
+      <c r="D13" s="7">
+        <v>4723</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="H13" s="7">
         <v>11</v>
       </c>
-      <c r="D13" s="7">
+      <c r="I13" s="7">
         <v>8214</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="J13" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>252</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="H13" s="7">
-        <v>6</v>
-      </c>
-      <c r="I13" s="7">
-        <v>4723</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>256</v>
       </c>
       <c r="M13" s="7">
         <v>17</v>
@@ -4017,13 +3999,13 @@
         <v>12936</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4032,34 +4014,34 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
+        <v>9</v>
+      </c>
+      <c r="D14" s="7">
+        <v>5822</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="H14" s="7">
         <v>5</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>3602</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="J14" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>261</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="H14" s="7">
-        <v>9</v>
-      </c>
-      <c r="I14" s="7">
-        <v>5822</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>265</v>
       </c>
       <c r="M14" s="7">
         <v>14</v>
@@ -4068,13 +4050,13 @@
         <v>9425</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4083,25 +4065,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>15</v>
+      </c>
+      <c r="D15" s="7">
+        <v>10545</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
         <v>16</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>11816</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
-        <v>15</v>
-      </c>
-      <c r="I15" s="7">
-        <v>10545</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4136,34 +4118,34 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>36</v>
+      </c>
+      <c r="D16" s="7">
+        <v>24192</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="H16" s="7">
         <v>41</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>28429</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="J16" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>270</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="H16" s="7">
-        <v>36</v>
-      </c>
-      <c r="I16" s="7">
-        <v>24192</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>274</v>
       </c>
       <c r="M16" s="7">
         <v>77</v>
@@ -4172,13 +4154,13 @@
         <v>52621</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4187,34 +4169,34 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
+        <v>36</v>
+      </c>
+      <c r="D17" s="7">
+        <v>22931</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="H17" s="7">
         <v>33</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>23018</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="J17" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>279</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="H17" s="7">
-        <v>36</v>
-      </c>
-      <c r="I17" s="7">
-        <v>22931</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>283</v>
       </c>
       <c r="M17" s="7">
         <v>69</v>
@@ -4223,13 +4205,13 @@
         <v>45949</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4238,25 +4220,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>72</v>
+      </c>
+      <c r="D18" s="7">
+        <v>47123</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
         <v>74</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>51447</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H18" s="7">
-        <v>72</v>
-      </c>
-      <c r="I18" s="7">
-        <v>47123</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -4305,7 +4287,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB353D0D-FC92-46DB-BCC0-ABB1E7384D8C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{995E976D-B251-4440-AA03-575DF7B82100}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4322,7 +4304,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4423,49 +4405,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
+        <v>8</v>
+      </c>
+      <c r="D4" s="7">
+        <v>4674</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="H4" s="7">
         <v>9</v>
       </c>
-      <c r="D4" s="7">
-        <v>5011</v>
-      </c>
-      <c r="E4" s="7" t="s">
+      <c r="I4" s="7">
+        <v>5683</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>289</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="H4" s="7">
-        <v>8</v>
-      </c>
-      <c r="I4" s="7">
-        <v>4637</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>293</v>
       </c>
       <c r="M4" s="7">
         <v>17</v>
       </c>
       <c r="N4" s="7">
-        <v>9648</v>
+        <v>10357</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4474,49 +4456,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
+        <v>6</v>
+      </c>
+      <c r="D5" s="7">
+        <v>3499</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="H5" s="7">
         <v>10</v>
       </c>
-      <c r="D5" s="7">
-        <v>5430</v>
-      </c>
-      <c r="E5" s="7" t="s">
+      <c r="I5" s="7">
+        <v>5766</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>298</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="H5" s="7">
-        <v>6</v>
-      </c>
-      <c r="I5" s="7">
-        <v>3547</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>302</v>
       </c>
       <c r="M5" s="7">
         <v>16</v>
       </c>
       <c r="N5" s="7">
-        <v>8977</v>
+        <v>9265</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4525,25 +4507,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>14</v>
+      </c>
+      <c r="D6" s="7">
+        <v>8173</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="7">
         <v>19</v>
       </c>
-      <c r="D6" s="7">
-        <v>10441</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="7">
-        <v>14</v>
-      </c>
       <c r="I6" s="7">
-        <v>8184</v>
+        <v>11449</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -4558,7 +4540,7 @@
         <v>33</v>
       </c>
       <c r="N6" s="7">
-        <v>18625</v>
+        <v>19622</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -4578,49 +4560,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
+        <v>14</v>
+      </c>
+      <c r="D7" s="7">
+        <v>7410</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="H7" s="7">
         <v>24</v>
       </c>
-      <c r="D7" s="7">
-        <v>14179</v>
-      </c>
-      <c r="E7" s="7" t="s">
+      <c r="I7" s="7">
+        <v>15386</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>307</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="H7" s="7">
-        <v>14</v>
-      </c>
-      <c r="I7" s="7">
-        <v>7454</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>311</v>
       </c>
       <c r="M7" s="7">
         <v>38</v>
       </c>
       <c r="N7" s="7">
-        <v>21632</v>
+        <v>22795</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4629,49 +4611,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
+        <v>3</v>
+      </c>
+      <c r="D8" s="7">
+        <v>1882</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="H8" s="7">
         <v>13</v>
       </c>
-      <c r="D8" s="7">
-        <v>7050</v>
-      </c>
-      <c r="E8" s="7" t="s">
+      <c r="I8" s="7">
+        <v>7273</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>315</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>316</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="H8" s="7">
-        <v>3</v>
-      </c>
-      <c r="I8" s="7">
-        <v>2047</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>320</v>
       </c>
       <c r="M8" s="7">
         <v>16</v>
       </c>
       <c r="N8" s="7">
-        <v>9097</v>
+        <v>9155</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4680,25 +4662,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>17</v>
+      </c>
+      <c r="D9" s="7">
+        <v>9292</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="7">
         <v>37</v>
       </c>
-      <c r="D9" s="7">
-        <v>21229</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="7">
-        <v>17</v>
-      </c>
       <c r="I9" s="7">
-        <v>9501</v>
+        <v>22659</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -4713,7 +4695,7 @@
         <v>54</v>
       </c>
       <c r="N9" s="7">
-        <v>30729</v>
+        <v>31950</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -4733,49 +4715,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>19</v>
+      </c>
+      <c r="D10" s="7">
+        <v>14303</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="H10" s="7">
         <v>20</v>
       </c>
-      <c r="D10" s="7">
-        <v>16646</v>
-      </c>
-      <c r="E10" s="7" t="s">
+      <c r="I10" s="7">
+        <v>18024</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>324</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>325</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="H10" s="7">
-        <v>19</v>
-      </c>
-      <c r="I10" s="7">
-        <v>14199</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>329</v>
       </c>
       <c r="M10" s="7">
         <v>39</v>
       </c>
       <c r="N10" s="7">
-        <v>30845</v>
+        <v>32326</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4784,49 +4766,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
+        <v>3</v>
+      </c>
+      <c r="D11" s="7">
+        <v>2435</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="H11" s="7">
         <v>7</v>
       </c>
-      <c r="D11" s="7">
-        <v>5225</v>
-      </c>
-      <c r="E11" s="7" t="s">
+      <c r="I11" s="7">
+        <v>5405</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>333</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>334</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>335</v>
-      </c>
-      <c r="H11" s="7">
-        <v>3</v>
-      </c>
-      <c r="I11" s="7">
-        <v>2589</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>336</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>337</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>338</v>
       </c>
       <c r="M11" s="7">
         <v>10</v>
       </c>
       <c r="N11" s="7">
-        <v>7814</v>
+        <v>7841</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4835,25 +4817,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>22</v>
+      </c>
+      <c r="D12" s="7">
+        <v>16738</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="7">
         <v>27</v>
       </c>
-      <c r="D12" s="7">
-        <v>21871</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" s="7">
-        <v>22</v>
-      </c>
       <c r="I12" s="7">
-        <v>16788</v>
+        <v>23429</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4868,7 +4850,7 @@
         <v>49</v>
       </c>
       <c r="N12" s="7">
-        <v>38659</v>
+        <v>40167</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4888,49 +4870,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
+        <v>30</v>
+      </c>
+      <c r="D13" s="7">
+        <v>25155</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="H13" s="7">
         <v>27</v>
       </c>
-      <c r="D13" s="7">
-        <v>28688</v>
-      </c>
-      <c r="E13" s="7" t="s">
+      <c r="I13" s="7">
+        <v>34355</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>342</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="H13" s="7">
-        <v>30</v>
-      </c>
-      <c r="I13" s="7">
-        <v>22102</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>347</v>
       </c>
       <c r="M13" s="7">
         <v>57</v>
       </c>
       <c r="N13" s="7">
-        <v>50789</v>
+        <v>59510</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4939,49 +4921,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
+        <v>6</v>
+      </c>
+      <c r="D14" s="7">
+        <v>4191</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="H14" s="7">
         <v>10</v>
       </c>
-      <c r="D14" s="7">
-        <v>7323</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>351</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>352</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>353</v>
-      </c>
-      <c r="H14" s="7">
-        <v>6</v>
-      </c>
       <c r="I14" s="7">
-        <v>4302</v>
+        <v>7137</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="M14" s="7">
         <v>16</v>
       </c>
       <c r="N14" s="7">
-        <v>11625</v>
+        <v>11328</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4990,25 +4972,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>36</v>
+      </c>
+      <c r="D15" s="7">
+        <v>29346</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
         <v>37</v>
       </c>
-      <c r="D15" s="7">
-        <v>36011</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
-        <v>36</v>
-      </c>
       <c r="I15" s="7">
-        <v>26404</v>
+        <v>41492</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -5023,7 +5005,7 @@
         <v>73</v>
       </c>
       <c r="N15" s="7">
-        <v>62414</v>
+        <v>70838</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -5043,49 +5025,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>71</v>
+      </c>
+      <c r="D16" s="7">
+        <v>51540</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="H16" s="7">
         <v>80</v>
       </c>
-      <c r="D16" s="7">
-        <v>64524</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>360</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>361</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>362</v>
-      </c>
-      <c r="H16" s="7">
-        <v>71</v>
-      </c>
       <c r="I16" s="7">
-        <v>48391</v>
+        <v>73448</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="M16" s="7">
         <v>151</v>
       </c>
       <c r="N16" s="7">
-        <v>112916</v>
+        <v>124989</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5094,49 +5076,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
+        <v>18</v>
+      </c>
+      <c r="D17" s="7">
+        <v>12008</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="H17" s="7">
         <v>40</v>
       </c>
-      <c r="D17" s="7">
-        <v>25027</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>369</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>370</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>371</v>
-      </c>
-      <c r="H17" s="7">
-        <v>18</v>
-      </c>
       <c r="I17" s="7">
-        <v>12485</v>
+        <v>25581</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="M17" s="7">
         <v>58</v>
       </c>
       <c r="N17" s="7">
-        <v>37512</v>
+        <v>37589</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5145,25 +5127,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>89</v>
+      </c>
+      <c r="D18" s="7">
+        <v>63548</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
         <v>120</v>
       </c>
-      <c r="D18" s="7">
-        <v>89551</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H18" s="7">
-        <v>89</v>
-      </c>
       <c r="I18" s="7">
-        <v>60876</v>
+        <v>99029</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -5178,7 +5160,7 @@
         <v>209</v>
       </c>
       <c r="N18" s="7">
-        <v>150428</v>
+        <v>162578</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
